--- a/development/06-Truss calculations/column-bracing.xlsx
+++ b/development/06-Truss calculations/column-bracing.xlsx
@@ -465,6 +465,45 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -491,45 +530,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="5" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -691,7 +691,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{351E8F81-2B18-D097-ED5F-4F27DF486F57}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{351E8F81-2B18-D097-ED5F-4F27DF486F57}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -735,7 +735,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{161899CD-52BD-AFA9-7E47-E547E7516EF2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{161899CD-52BD-AFA9-7E47-E547E7516EF2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1029,8 +1029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I32" sqref="G32:I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1058,24 +1058,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="N1" s="24" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="N1" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="O1" s="24"/>
+      <c r="O1" s="20"/>
       <c r="P1" s="13">
         <v>3.6</v>
       </c>
@@ -1084,26 +1084,26 @@
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="N2" s="29" t="s">
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="N2" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="O2" s="24"/>
+      <c r="O2" s="20"/>
       <c r="P2" s="14">
         <v>5.2</v>
       </c>
-      <c r="Q2" s="30" t="s">
+      <c r="Q2" s="15" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1725,43 +1725,43 @@
         <v>27</v>
       </c>
       <c r="B17" s="2">
-        <f>IF(B14&lt;100, 0.58*$P$1-6.5*POWER(10,-5)*POWER(B14,2), 7500/POWER(B14,2))</f>
+        <f t="shared" ref="B17:K17" si="7">IF(B14&lt;100, 0.58*$P$1-6.5*POWER(10,-5)*POWER(B14,2), 7500/POWER(B14,2))</f>
         <v>1.9050731707317072</v>
       </c>
       <c r="C17" s="2">
-        <f>IF(C14&lt;100, 0.58*$P$1-6.5*POWER(10,-5)*POWER(C14,2), 7500/POWER(C14,2))</f>
+        <f t="shared" si="7"/>
         <v>1.6025647058823529</v>
       </c>
       <c r="D17" s="2">
-        <f>IF(D14&lt;100, 0.58*$P$1-6.5*POWER(10,-5)*POWER(D14,2), 7500/POWER(D14,2))</f>
+        <f t="shared" si="7"/>
         <v>1.9050731707317072</v>
       </c>
       <c r="E17" s="2">
-        <f>IF(E14&lt;100, 0.58*$P$1-6.5*POWER(10,-5)*POWER(E14,2), 7500/POWER(E14,2))</f>
+        <f t="shared" si="7"/>
         <v>1.6025647058823529</v>
       </c>
       <c r="F17" s="2">
-        <f>IF(F14&lt;100, 0.58*$P$1-6.5*POWER(10,-5)*POWER(F14,2), 7500/POWER(F14,2))</f>
+        <f t="shared" si="7"/>
         <v>1.9050731707317072</v>
       </c>
       <c r="G17" s="2">
-        <f>IF(G14&lt;100, 0.58*$P$1-6.5*POWER(10,-5)*POWER(G14,2), 7500/POWER(G14,2))</f>
+        <f t="shared" si="7"/>
         <v>1.6025647058823529</v>
       </c>
       <c r="H17" s="2">
-        <f>IF(H14&lt;100, 0.58*$P$1-6.5*POWER(10,-5)*POWER(H14,2), 7500/POWER(H14,2))</f>
+        <f t="shared" si="7"/>
         <v>1.9050731707317072</v>
       </c>
       <c r="I17" s="2">
-        <f>IF(I14&lt;100, 0.58*$P$1-6.5*POWER(10,-5)*POWER(I14,2), 7500/POWER(I14,2))</f>
+        <f t="shared" si="7"/>
         <v>1.6025647058823529</v>
       </c>
       <c r="J17" s="2">
-        <f>IF(J14&lt;100, 0.58*$P$1-6.5*POWER(10,-5)*POWER(J14,2), 7500/POWER(J14,2))</f>
+        <f t="shared" si="7"/>
         <v>1.8977560975609757</v>
       </c>
       <c r="K17" s="2">
-        <f>IF(K14&lt;100, 0.58*$P$1-6.5*POWER(10,-5)*POWER(K14,2), 7500/POWER(K14,2))</f>
+        <f t="shared" si="7"/>
         <v>1.6025647058823529</v>
       </c>
       <c r="L17" s="2"/>
@@ -1775,39 +1775,39 @@
         <v>57.06</v>
       </c>
       <c r="C18" s="2" t="str">
-        <f t="shared" ref="C18:K18" si="7">IF((C16)/C17 &gt;1, "not safe", FIXED(((C16)/C17) * 100, 2) )</f>
+        <f t="shared" ref="C18:K18" si="8">IF((C16)/C17 &gt;1, "not safe", FIXED(((C16)/C17) * 100, 2) )</f>
         <v>43.20</v>
       </c>
       <c r="D18" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.43</v>
       </c>
       <c r="E18" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>88.80</v>
       </c>
       <c r="F18" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.71</v>
       </c>
       <c r="G18" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>57.60</v>
       </c>
       <c r="H18" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>24.96</v>
       </c>
       <c r="I18" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>55.20</v>
       </c>
       <c r="J18" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.59</v>
       </c>
       <c r="K18" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>37.44</v>
       </c>
       <c r="L18" s="2"/>
@@ -1817,43 +1817,43 @@
         <v>25</v>
       </c>
       <c r="B19" s="2">
-        <f t="shared" ref="B19:K19" si="8">B8/(B11*0.01)</f>
+        <f t="shared" ref="B19:K19" si="9">B8/(B11*0.01)</f>
         <v>0.91032608695652173</v>
       </c>
       <c r="C19" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.2307692307692308</v>
       </c>
       <c r="D19" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.1766304347826087</v>
       </c>
       <c r="E19" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.57692307692307687</v>
       </c>
       <c r="F19" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.358695652173913E-2</v>
       </c>
       <c r="G19" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.70769230769230762</v>
       </c>
       <c r="H19" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I19" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.32307692307692309</v>
       </c>
       <c r="J19" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.3333333333333333E-2</v>
       </c>
       <c r="K19" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.15384615384615385</v>
       </c>
       <c r="L19" s="2"/>
@@ -1863,43 +1863,43 @@
         <v>32</v>
       </c>
       <c r="B20" s="2" t="str">
-        <f>IF(B19 &gt; 0.58*$P$1, "not safe", FIXED(((B19)/$P$1) * 100, 2) )</f>
+        <f t="shared" ref="B20:K20" si="10">IF(B19 &gt; 0.58*$P$1, "not safe", FIXED(((B19)/$P$1) * 100, 2) )</f>
         <v>25.29</v>
       </c>
       <c r="C20" s="2" t="str">
-        <f>IF(C19 &gt; 0.58*$P$1, "not safe", FIXED(((C19)/$P$1) * 100, 2) )</f>
+        <f t="shared" si="10"/>
         <v>34.19</v>
       </c>
       <c r="D20" s="2" t="str">
-        <f>IF(D19 &gt; 0.58*$P$1, "not safe", FIXED(((D19)/$P$1) * 100, 2) )</f>
+        <f t="shared" si="10"/>
         <v>4.91</v>
       </c>
       <c r="E20" s="2" t="str">
-        <f>IF(E19 &gt; 0.58*$P$1, "not safe", FIXED(((E19)/$P$1) * 100, 2) )</f>
+        <f t="shared" si="10"/>
         <v>16.03</v>
       </c>
       <c r="F20" s="2" t="str">
-        <f>IF(F19 &gt; 0.58*$P$1, "not safe", FIXED(((F19)/$P$1) * 100, 2) )</f>
+        <f t="shared" si="10"/>
         <v>0.38</v>
       </c>
       <c r="G20" s="2" t="str">
-        <f>IF(G19 &gt; 0.58*$P$1, "not safe", FIXED(((G19)/$P$1) * 100, 2) )</f>
+        <f t="shared" si="10"/>
         <v>19.66</v>
       </c>
       <c r="H20" s="2" t="str">
-        <f>IF(H19 &gt; 0.58*$P$1, "not safe", FIXED(((H19)/$P$1) * 100, 2) )</f>
+        <f t="shared" si="10"/>
         <v>0.00</v>
       </c>
       <c r="I20" s="2" t="str">
-        <f>IF(I19 &gt; 0.58*$P$1, "not safe", FIXED(((I19)/$P$1) * 100, 2) )</f>
+        <f t="shared" si="10"/>
         <v>8.97</v>
       </c>
       <c r="J20" s="2" t="str">
-        <f>IF(J19 &gt; 0.58*$P$1, "not safe", FIXED(((J19)/$P$1) * 100, 2) )</f>
+        <f t="shared" si="10"/>
         <v>0.93</v>
       </c>
       <c r="K20" s="2" t="str">
-        <f>IF(K19 &gt; 0.58*$P$1, "not safe", FIXED(((K19)/$P$1) * 100, 2) )</f>
+        <f t="shared" si="10"/>
         <v>4.27</v>
       </c>
       <c r="L20" s="2"/>
@@ -2037,39 +2037,39 @@
         <v>931</v>
       </c>
       <c r="C25" s="2">
-        <f t="shared" ref="C25:K25" si="9">C22*(C23*C24+(C23-C24)*C24)</f>
+        <f t="shared" ref="C25:K25" si="11">C22*(C23*C24+(C23-C24)*C24)</f>
         <v>931</v>
       </c>
       <c r="D25" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>931</v>
       </c>
       <c r="E25" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>931</v>
       </c>
       <c r="F25" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>931</v>
       </c>
       <c r="G25" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>931</v>
       </c>
       <c r="H25" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2432</v>
       </c>
       <c r="I25" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2432</v>
       </c>
       <c r="J25" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2432</v>
       </c>
       <c r="K25" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2432</v>
       </c>
       <c r="L25" s="2"/>
@@ -2079,43 +2079,43 @@
         <v>5</v>
       </c>
       <c r="B26" s="1">
-        <f t="shared" ref="B26:K26" si="10">B25*1000*B4</f>
+        <f t="shared" ref="B26:K26" si="12">B25*1000*B4</f>
         <v>931000</v>
       </c>
       <c r="C26" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2141300</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>931000</v>
       </c>
       <c r="E26" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2141300</v>
       </c>
       <c r="F26" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>931000</v>
       </c>
       <c r="G26" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2141300</v>
       </c>
       <c r="H26" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2432000</v>
       </c>
       <c r="I26" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>5593600</v>
       </c>
       <c r="J26" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2432000</v>
       </c>
       <c r="K26" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>5593600</v>
       </c>
       <c r="L26" s="1">
@@ -2124,57 +2124,57 @@
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B27" s="17">
+      <c r="B27" s="30">
         <f>((L26-L12)/L26)*100</f>
         <v>25.621633601260086</v>
       </c>
-      <c r="C27" s="17" t="s">
+      <c r="C27" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D27" s="22" t="s">
+      <c r="D27" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="E27" s="22" t="s">
+      <c r="E27" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="F27" s="22" t="s">
+      <c r="F27" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="G27" s="22" t="s">
+      <c r="G27" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="H27" s="22" t="s">
+      <c r="H27" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="I27" s="22" t="s">
+      <c r="I27" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="J27" s="22" t="s">
+      <c r="J27" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="K27" s="22" t="s">
+      <c r="K27" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="L27" s="22" t="s">
+      <c r="L27" s="35" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="16"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="23"/>
-      <c r="K28" s="23"/>
-      <c r="L28" s="23"/>
+      <c r="A28" s="29"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="36"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="10"/>
@@ -2215,39 +2215,39 @@
         <v>4</v>
       </c>
       <c r="C31">
-        <f t="shared" ref="C31:K31" si="11">MAX(4,C10)</f>
+        <f t="shared" ref="C31:K31" si="13">MAX(4,C10)</f>
         <v>5</v>
       </c>
       <c r="D31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="E31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="F31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="G31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="H31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="I31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="J31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="K31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
     </row>
@@ -2256,118 +2256,118 @@
         <v>18</v>
       </c>
       <c r="B32" s="9" t="str">
-        <f t="shared" ref="B32:K32" si="12">FIXED(MAX(5,MAX(B7,B8)/(1.04*B31*0.1*4))+2*0.1*B31,1)</f>
+        <f t="shared" ref="B32:K32" si="14">FIXED(MAX(5,MAX(B7,B8)/(1.04*B31*0.1*4))+2*0.1*B31,1)</f>
         <v>5.8</v>
       </c>
       <c r="C32" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>8.7</v>
       </c>
       <c r="D32" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>5.8</v>
       </c>
       <c r="E32" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>9.9</v>
       </c>
       <c r="F32" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>5.8</v>
       </c>
       <c r="G32" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>6.8</v>
       </c>
       <c r="H32" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>5.8</v>
       </c>
       <c r="I32" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>6.5</v>
       </c>
       <c r="J32" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>6.0</v>
       </c>
       <c r="K32" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>6.0</v>
       </c>
       <c r="L32" s="9"/>
     </row>
     <row r="38" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="28" t="s">
+      <c r="A38" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="B38" s="28"/>
-      <c r="C38" s="28"/>
-      <c r="D38" s="28"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="28"/>
-      <c r="G38" s="28"/>
-      <c r="H38" s="28"/>
-      <c r="I38" s="28"/>
-      <c r="J38" s="28"/>
-      <c r="K38" s="28"/>
-      <c r="L38" s="28"/>
-      <c r="R38" s="31" t="s">
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="24"/>
+      <c r="J38" s="24"/>
+      <c r="K38" s="24"/>
+      <c r="L38" s="24"/>
+      <c r="R38" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="S38" s="31" t="s">
+      <c r="S38" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="T38" s="35" t="s">
+      <c r="T38" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="U38" s="35" t="s">
+      <c r="U38" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="V38" s="34"/>
-      <c r="W38" s="31" t="s">
+      <c r="V38" s="17"/>
+      <c r="W38" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="X38" s="32" t="s">
+      <c r="X38" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="Y38" s="32" t="s">
+      <c r="Y38" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="Z38" s="32"/>
-      <c r="AA38" s="32" t="s">
+      <c r="Z38" s="22"/>
+      <c r="AA38" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="AB38" s="32"/>
-      <c r="AE38" s="34"/>
-      <c r="AF38" s="35"/>
+      <c r="AB38" s="22"/>
+      <c r="AE38" s="17"/>
+      <c r="AF38" s="18"/>
     </row>
     <row r="39" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A39" s="28"/>
-      <c r="B39" s="28"/>
-      <c r="C39" s="28"/>
-      <c r="D39" s="28"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="28"/>
-      <c r="G39" s="28"/>
-      <c r="H39" s="28"/>
-      <c r="I39" s="28"/>
-      <c r="J39" s="28"/>
-      <c r="K39" s="28"/>
-      <c r="L39" s="28"/>
-      <c r="R39" s="31"/>
-      <c r="S39" s="31"/>
-      <c r="T39" s="35"/>
-      <c r="U39" s="35"/>
-      <c r="V39" s="34"/>
-      <c r="W39" s="31"/>
-      <c r="X39" s="36"/>
-      <c r="Y39" s="36"/>
-      <c r="Z39" s="36"/>
-      <c r="AA39" s="36"/>
-      <c r="AB39" s="36"/>
-      <c r="AE39" s="34"/>
-      <c r="AF39" s="35"/>
+      <c r="A39" s="24"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="24"/>
+      <c r="J39" s="24"/>
+      <c r="K39" s="24"/>
+      <c r="L39" s="24"/>
+      <c r="R39" s="21"/>
+      <c r="S39" s="21"/>
+      <c r="T39" s="18"/>
+      <c r="U39" s="18"/>
+      <c r="V39" s="17"/>
+      <c r="W39" s="21"/>
+      <c r="X39" s="23"/>
+      <c r="Y39" s="23"/>
+      <c r="Z39" s="23"/>
+      <c r="AA39" s="23"/>
+      <c r="AB39" s="23"/>
+      <c r="AE39" s="17"/>
+      <c r="AF39" s="18"/>
     </row>
     <row r="40" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
@@ -2469,10 +2469,10 @@
         <v>18</v>
       </c>
       <c r="E41" s="3">
-        <f>D41*B41*2</f>
+        <f t="shared" ref="E41:E49" si="15">D41*B41*2</f>
         <v>21.599999999999998</v>
       </c>
-      <c r="F41" s="33" t="str">
+      <c r="F41" s="16" t="str">
         <f>IF(AND(MAX(Y41,AA41)&lt;0.2*$P$2,H41&lt;1.1*0.2*$P$2), "safe", "unsafe")</f>
         <v>safe</v>
       </c>
@@ -2481,7 +2481,7 @@
         <v>1.0249981489844133</v>
       </c>
       <c r="H41" s="3">
-        <f>MAX(AB41,Z41)</f>
+        <f t="shared" ref="H41:H49" si="16">MAX(AB41,Z41)</f>
         <v>1.0397044474216848</v>
       </c>
       <c r="I41" s="3">
@@ -2520,11 +2520,11 @@
         <v>-2.1730692342429476</v>
       </c>
       <c r="T41" s="3">
-        <f>L41*SIN(ABS(N41))+P41*SIN(ABS(Q41))</f>
+        <f t="shared" ref="T41:T49" si="17">L41*SIN(ABS(N41))+P41*SIN(ABS(Q41))</f>
         <v>2.6107489247237878</v>
       </c>
       <c r="U41" s="3">
-        <f>M41*SIN(ABS(N41))+O41*SIN(ABS(Q41))</f>
+        <f t="shared" ref="U41:U49" si="18">M41*SIN(ABS(N41))+O41*SIN(ABS(Q41))</f>
         <v>1.5062013027252623</v>
       </c>
       <c r="V41" s="3">
@@ -2532,7 +2532,7 @@
         <v>583.19999999999993</v>
       </c>
       <c r="W41" s="3">
-        <f>R41*C41</f>
+        <f t="shared" ref="W41:W49" si="19">R41*C41</f>
         <v>-44.279920036126647</v>
       </c>
       <c r="X41" s="3">
@@ -2540,11 +2540,11 @@
         <v>-13.038415405457686</v>
       </c>
       <c r="Y41" s="3">
-        <f>ABS(W41)*$D41/(2*V41)+ABS(R41)/$E41</f>
+        <f t="shared" ref="Y41:Y49" si="20">ABS(W41)*$D41/(2*V41)+ABS(R41)/$E41</f>
         <v>1.0249981489844133</v>
       </c>
       <c r="Z41" s="3">
-        <f>POWER(POWER(Y41,2)+3*POWER(S41/E41,2),0.5)</f>
+        <f t="shared" ref="Z41:Z49" si="21">POWER(POWER(Y41,2)+3*POWER(S41/E41,2),0.5)</f>
         <v>1.0397044474216848</v>
       </c>
       <c r="AA41" s="3">
@@ -2570,11 +2570,11 @@
         <v>12</v>
       </c>
       <c r="E42" s="3">
-        <f>D42*B42*2</f>
+        <f t="shared" si="15"/>
         <v>9.6000000000000014</v>
       </c>
-      <c r="F42" s="33" t="str">
-        <f t="shared" ref="F42:F49" si="13">IF(AND(G42&lt;0.2*$P$2,H42&lt;1.1*0.2*$P$2), "safe", "unsafe")</f>
+      <c r="F42" s="16" t="str">
+        <f t="shared" ref="F42:F49" si="22">IF(AND(G42&lt;0.2*$P$2,H42&lt;1.1*0.2*$P$2), "safe", "unsafe")</f>
         <v>safe</v>
       </c>
       <c r="G42" s="3">
@@ -2582,7 +2582,7 @@
         <v>0.14348276359709161</v>
       </c>
       <c r="H42" s="3">
-        <f>MAX(AB42,Z42)</f>
+        <f t="shared" si="16"/>
         <v>1.0366164054132403</v>
       </c>
       <c r="I42" s="3">
@@ -2613,47 +2613,47 @@
         <v>63</v>
       </c>
       <c r="R42" s="3">
-        <f t="shared" ref="R42:R49" si="14">J42*COS(ABS(K42))-L42*COS(ABS(N42))+P42*COS(ABS(Q42))</f>
+        <f t="shared" ref="R42:R49" si="23">J42*COS(ABS(K42))-L42*COS(ABS(N42))+P42*COS(ABS(Q42))</f>
         <v>1.3774345305320796</v>
       </c>
       <c r="S42" s="3">
-        <f t="shared" ref="S42:S49" si="15">I42*COS(ABS(K42))-M42*COS(ABS(N42))+O42*COS(ABS(Q42))</f>
+        <f t="shared" ref="S42:S49" si="24">I42*COS(ABS(K42))-M42*COS(ABS(N42))+O42*COS(ABS(Q42))</f>
         <v>-0.86897247948160761</v>
       </c>
       <c r="T42" s="3">
-        <f>L42*SIN(ABS(N42))+P42*SIN(ABS(Q42))</f>
+        <f t="shared" si="17"/>
         <v>2.7446334849660334</v>
       </c>
       <c r="U42" s="3">
-        <f>M42*SIN(ABS(N42))+O42*SIN(ABS(Q42))</f>
+        <f t="shared" si="18"/>
         <v>5.7235649503559962</v>
       </c>
       <c r="V42" s="3">
-        <f t="shared" ref="V42:V48" si="16">POWER($D42,3)*$B42/6</f>
+        <f t="shared" ref="V42:V48" si="25">POWER($D42,3)*$B42/6</f>
         <v>115.2</v>
       </c>
       <c r="W42" s="3">
-        <f>R42*C42</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="X42" s="3">
-        <f t="shared" ref="X42:X49" si="17">S42*C42</f>
+        <f t="shared" ref="X42:X49" si="26">S42*C42</f>
         <v>0</v>
       </c>
       <c r="Y42" s="3">
-        <f>ABS(W42)*$D42/(2*V42)+ABS(R42)/$E42</f>
+        <f t="shared" si="20"/>
         <v>0.14348276359709161</v>
       </c>
       <c r="Z42" s="3">
-        <f>POWER(POWER(Y42,2)+3*POWER(S42/E42,2),0.5)</f>
+        <f t="shared" si="21"/>
         <v>0.21252719893824135</v>
       </c>
       <c r="AA42" s="3">
-        <f t="shared" ref="AA42:AA49" si="18">ABS(X42)*D42/(2*V42)+ABS(S42)/E42</f>
+        <f t="shared" ref="AA42:AA49" si="27">ABS(X42)*D42/(2*V42)+ABS(S42)/E42</f>
         <v>9.051796661266745E-2</v>
       </c>
       <c r="AB42" s="3">
-        <f t="shared" ref="AB42:AB49" si="19">POWER(POWER(AA42,2)+3*POWER(U42/E42,2),0.5)</f>
+        <f t="shared" ref="AB42:AB49" si="28">POWER(POWER(AA42,2)+3*POWER(U42/E42,2),0.5)</f>
         <v>1.0366164054132403</v>
       </c>
     </row>
@@ -2671,19 +2671,19 @@
         <v>7</v>
       </c>
       <c r="E43" s="3">
-        <f>D43*B43*2</f>
+        <f t="shared" si="15"/>
         <v>5.6000000000000005</v>
       </c>
-      <c r="F43" s="33" t="str">
-        <f t="shared" si="13"/>
+      <c r="F43" s="16" t="str">
+        <f t="shared" si="22"/>
         <v>safe</v>
       </c>
       <c r="G43" s="3">
-        <f t="shared" ref="G43:G49" si="20">MAX(Y43,AA43)</f>
+        <f t="shared" ref="G43:G49" si="29">MAX(Y43,AA43)</f>
         <v>0.23214285714285712</v>
       </c>
       <c r="H43" s="3">
-        <f>MAX(AB43,Z43)</f>
+        <f t="shared" si="16"/>
         <v>0.40366623412347552</v>
       </c>
       <c r="I43" s="3">
@@ -2714,47 +2714,47 @@
         <v>63</v>
       </c>
       <c r="R43" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>-0.2</v>
       </c>
       <c r="S43" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v>1.3</v>
       </c>
       <c r="T43" s="3">
-        <f>L43*SIN(ABS(N43))+P43*SIN(ABS(Q43))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="U43" s="3">
-        <f>M43*SIN(ABS(N43))+O43*SIN(ABS(Q43))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="V43" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v>22.866666666666671</v>
       </c>
       <c r="W43" s="3">
-        <f>R43*C43</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="X43" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="Y43" s="3">
-        <f>ABS(W43)*$D43/(2*V43)+ABS(R43)/$E43</f>
+        <f t="shared" si="20"/>
         <v>3.5714285714285712E-2</v>
       </c>
       <c r="Z43" s="3">
-        <f>POWER(POWER(Y43,2)+3*POWER(S43/E43,2),0.5)</f>
+        <f t="shared" si="21"/>
         <v>0.40366623412347552</v>
       </c>
       <c r="AA43" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>0.23214285714285712</v>
       </c>
       <c r="AB43" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>0.23214285714285712</v>
       </c>
     </row>
@@ -2772,19 +2772,19 @@
         <v>7</v>
       </c>
       <c r="E44" s="3">
-        <f>D44*B44*2</f>
+        <f t="shared" si="15"/>
         <v>5.6000000000000005</v>
       </c>
-      <c r="F44" s="33" t="str">
-        <f t="shared" si="13"/>
+      <c r="F44" s="16" t="str">
+        <f t="shared" si="22"/>
         <v>safe</v>
       </c>
       <c r="G44" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v>1.7857142857142856E-2</v>
       </c>
       <c r="H44" s="3">
-        <f>MAX(AB44,Z44)</f>
+        <f t="shared" si="16"/>
         <v>3.0929478706587094E-2</v>
       </c>
       <c r="I44" s="3">
@@ -2815,47 +2815,47 @@
         <v>63</v>
       </c>
       <c r="R44" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="S44" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v>0.1</v>
       </c>
       <c r="T44" s="3">
-        <f>L44*SIN(ABS(N44))+P44*SIN(ABS(Q44))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="U44" s="3">
-        <f>M44*SIN(ABS(N44))+O44*SIN(ABS(Q44))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="V44" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v>22.866666666666671</v>
       </c>
       <c r="W44" s="3">
-        <f>R44*C44</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="X44" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="Y44" s="3">
-        <f>ABS(W44)*$D44/(2*V44)+ABS(R44)/$E44</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="Z44" s="3">
-        <f>POWER(POWER(Y44,2)+3*POWER(S44/E44,2),0.5)</f>
+        <f t="shared" si="21"/>
         <v>3.0929478706587094E-2</v>
       </c>
       <c r="AA44" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>1.7857142857142856E-2</v>
       </c>
       <c r="AB44" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>1.7857142857142856E-2</v>
       </c>
     </row>
@@ -2873,90 +2873,90 @@
         <v>12</v>
       </c>
       <c r="E45" s="3">
-        <f>D45*B45*2</f>
+        <f t="shared" si="15"/>
         <v>14.399999999999999</v>
       </c>
-      <c r="F45" s="33" t="str">
-        <f t="shared" si="13"/>
+      <c r="F45" s="16" t="str">
+        <f t="shared" si="22"/>
         <v>safe</v>
       </c>
       <c r="G45" s="3">
+        <f t="shared" si="29"/>
+        <v>0.61618536348909358</v>
+      </c>
+      <c r="H45" s="3">
+        <f t="shared" si="16"/>
+        <v>0.81502557276160292</v>
+      </c>
+      <c r="I45" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="M45" s="3">
+        <v>12</v>
+      </c>
+      <c r="N45" s="3">
+        <v>-63</v>
+      </c>
+      <c r="O45" s="3">
+        <v>7.4</v>
+      </c>
+      <c r="P45" s="3">
+        <v>18.2</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>63</v>
+      </c>
+      <c r="R45" s="3">
+        <f t="shared" si="23"/>
+        <v>8.873069234242946</v>
+      </c>
+      <c r="S45" s="3">
+        <f t="shared" si="24"/>
+        <v>-4.4351242752797289</v>
+      </c>
+      <c r="T45" s="3">
+        <f t="shared" si="17"/>
+        <v>4.5855461882969095</v>
+      </c>
+      <c r="U45" s="3">
+        <f t="shared" si="18"/>
+        <v>3.2467005858744544</v>
+      </c>
+      <c r="V45" s="3">
+        <f t="shared" si="25"/>
+        <v>172.79999999999998</v>
+      </c>
+      <c r="W45" s="3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="X45" s="3">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="Y45" s="3">
         <f t="shared" si="20"/>
         <v>0.61618536348909358</v>
       </c>
-      <c r="H45" s="3">
-        <f>MAX(AB45,Z45)</f>
+      <c r="Z45" s="3">
+        <f t="shared" si="21"/>
         <v>0.81502557276160292</v>
       </c>
-      <c r="I45" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="J45" s="3">
-        <v>0</v>
-      </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
-      <c r="L45" s="3">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="M45" s="3">
-        <v>12</v>
-      </c>
-      <c r="N45" s="3">
-        <v>-63</v>
-      </c>
-      <c r="O45" s="3">
-        <v>7.4</v>
-      </c>
-      <c r="P45" s="3">
-        <v>18.2</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>63</v>
-      </c>
-      <c r="R45" s="3">
-        <f t="shared" si="14"/>
-        <v>8.873069234242946</v>
-      </c>
-      <c r="S45" s="3">
-        <f t="shared" si="15"/>
-        <v>-4.4351242752797289</v>
-      </c>
-      <c r="T45" s="3">
-        <f>L45*SIN(ABS(N45))+P45*SIN(ABS(Q45))</f>
-        <v>4.5855461882969095</v>
-      </c>
-      <c r="U45" s="3">
-        <f>M45*SIN(ABS(N45))+O45*SIN(ABS(Q45))</f>
-        <v>3.2467005858744544</v>
-      </c>
-      <c r="V45" s="3">
-        <f t="shared" si="16"/>
-        <v>172.79999999999998</v>
-      </c>
-      <c r="W45" s="3">
-        <f>R45*C45</f>
-        <v>0</v>
-      </c>
-      <c r="X45" s="3">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="Y45" s="3">
-        <f>ABS(W45)*$D45/(2*V45)+ABS(R45)/$E45</f>
-        <v>0.61618536348909358</v>
-      </c>
-      <c r="Z45" s="3">
-        <f>POWER(POWER(Y45,2)+3*POWER(S45/E45,2),0.5)</f>
-        <v>0.81502557276160292</v>
-      </c>
       <c r="AA45" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>0.30799474133887011</v>
       </c>
       <c r="AB45" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>0.49735760794617895</v>
       </c>
     </row>
@@ -2974,90 +2974,90 @@
         <v>12</v>
       </c>
       <c r="E46" s="3">
-        <f>D46*B46*2</f>
+        <f t="shared" si="15"/>
         <v>14.399999999999999</v>
       </c>
-      <c r="F46" s="33" t="str">
-        <f t="shared" si="13"/>
+      <c r="F46" s="16" t="str">
+        <f t="shared" si="22"/>
         <v>safe</v>
       </c>
       <c r="G46" s="3">
+        <f t="shared" si="29"/>
+        <v>0.53402731502388112</v>
+      </c>
+      <c r="H46" s="3">
+        <f t="shared" si="16"/>
+        <v>0.55422021273762123</v>
+      </c>
+      <c r="I46" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="J46" s="3">
+        <v>0</v>
+      </c>
+      <c r="K46" s="3">
+        <v>0</v>
+      </c>
+      <c r="L46" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="M46" s="3">
+        <v>11.5</v>
+      </c>
+      <c r="N46" s="3">
+        <v>-63</v>
+      </c>
+      <c r="O46" s="3">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="P46" s="3">
+        <v>12</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>63</v>
+      </c>
+      <c r="R46" s="3">
+        <f t="shared" si="23"/>
+        <v>7.6899933363438873</v>
+      </c>
+      <c r="S46" s="3">
+        <f t="shared" si="24"/>
+        <v>1.2324378623601362</v>
+      </c>
+      <c r="T46" s="3">
+        <f t="shared" si="17"/>
+        <v>2.711162344905472</v>
+      </c>
+      <c r="U46" s="3">
+        <f t="shared" si="18"/>
+        <v>3.4642629962681033</v>
+      </c>
+      <c r="V46" s="3">
+        <f t="shared" si="25"/>
+        <v>172.79999999999998</v>
+      </c>
+      <c r="W46" s="3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="X46" s="3">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="Y46" s="3">
         <f t="shared" si="20"/>
         <v>0.53402731502388112</v>
       </c>
-      <c r="H46" s="3">
-        <f>MAX(AB46,Z46)</f>
+      <c r="Z46" s="3">
+        <f t="shared" si="21"/>
         <v>0.55422021273762123</v>
       </c>
-      <c r="I46" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="J46" s="3">
-        <v>0</v>
-      </c>
-      <c r="K46" s="3">
-        <v>0</v>
-      </c>
-      <c r="L46" s="3">
-        <v>4.2</v>
-      </c>
-      <c r="M46" s="3">
-        <v>11.5</v>
-      </c>
-      <c r="N46" s="3">
-        <v>-63</v>
-      </c>
-      <c r="O46" s="3">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="P46" s="3">
-        <v>12</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>63</v>
-      </c>
-      <c r="R46" s="3">
-        <f t="shared" si="14"/>
-        <v>7.6899933363438873</v>
-      </c>
-      <c r="S46" s="3">
-        <f t="shared" si="15"/>
-        <v>1.2324378623601362</v>
-      </c>
-      <c r="T46" s="3">
-        <f>L46*SIN(ABS(N46))+P46*SIN(ABS(Q46))</f>
-        <v>2.711162344905472</v>
-      </c>
-      <c r="U46" s="3">
-        <f>M46*SIN(ABS(N46))+O46*SIN(ABS(Q46))</f>
-        <v>3.4642629962681033</v>
-      </c>
-      <c r="V46" s="3">
-        <f t="shared" si="16"/>
-        <v>172.79999999999998</v>
-      </c>
-      <c r="W46" s="3">
-        <f>R46*C46</f>
-        <v>0</v>
-      </c>
-      <c r="X46" s="3">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="Y46" s="3">
-        <f>ABS(W46)*$D46/(2*V46)+ABS(R46)/$E46</f>
-        <v>0.53402731502388112</v>
-      </c>
-      <c r="Z46" s="3">
-        <f>POWER(POWER(Y46,2)+3*POWER(S46/E46,2),0.5)</f>
-        <v>0.55422021273762123</v>
-      </c>
       <c r="AA46" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>8.5585962663898354E-2</v>
       </c>
       <c r="AB46" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>0.42538481923699251</v>
       </c>
     </row>
@@ -3075,19 +3075,19 @@
         <v>7</v>
       </c>
       <c r="E47" s="3">
-        <f>D47*B47*2</f>
+        <f t="shared" si="15"/>
         <v>5.6000000000000005</v>
       </c>
-      <c r="F47" s="33" t="str">
-        <f t="shared" si="13"/>
+      <c r="F47" s="16" t="str">
+        <f t="shared" si="22"/>
         <v>safe</v>
       </c>
       <c r="G47" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v>0.62499999999999989</v>
       </c>
       <c r="H47" s="3">
-        <f>MAX(AB47,Z47)</f>
+        <f t="shared" si="16"/>
         <v>1.0825317547305482</v>
       </c>
       <c r="I47" s="3">
@@ -3118,47 +3118,47 @@
         <v>63</v>
       </c>
       <c r="R47" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="S47" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v>3.5</v>
       </c>
       <c r="T47" s="3">
-        <f>L47*SIN(ABS(N47))+P47*SIN(ABS(Q47))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="U47" s="3">
-        <f>M47*SIN(ABS(N47))+O47*SIN(ABS(Q47))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="V47" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v>22.866666666666671</v>
       </c>
       <c r="W47" s="3">
-        <f>R47*C47</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="X47" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="Y47" s="3">
-        <f>ABS(W47)*$D47/(2*V47)+ABS(R47)/$E47</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="Z47" s="3">
-        <f>POWER(POWER(Y47,2)+3*POWER(S47/E47,2),0.5)</f>
+        <f t="shared" si="21"/>
         <v>1.0825317547305482</v>
       </c>
       <c r="AA47" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>0.62499999999999989</v>
       </c>
       <c r="AB47" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>0.62499999999999989</v>
       </c>
     </row>
@@ -3176,19 +3176,19 @@
         <v>7</v>
       </c>
       <c r="E48" s="3">
-        <f>D48*B48*2</f>
+        <f t="shared" si="15"/>
         <v>5.6000000000000005</v>
       </c>
-      <c r="F48" s="33" t="str">
-        <f t="shared" si="13"/>
+      <c r="F48" s="16" t="str">
+        <f t="shared" si="22"/>
         <v>safe</v>
       </c>
       <c r="G48" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v>3.5714285714285712E-2</v>
       </c>
       <c r="H48" s="3">
-        <f>MAX(AB48,Z48)</f>
+        <f t="shared" si="16"/>
         <v>6.4384844204714103E-2</v>
       </c>
       <c r="I48" s="3">
@@ -3219,47 +3219,47 @@
         <v>63</v>
       </c>
       <c r="R48" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>0.1</v>
       </c>
       <c r="S48" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v>0.2</v>
       </c>
       <c r="T48" s="3">
-        <f>L48*SIN(ABS(N48))+P48*SIN(ABS(Q48))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="U48" s="3">
-        <f>M48*SIN(ABS(N48))+O48*SIN(ABS(Q48))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="V48" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v>22.866666666666671</v>
       </c>
       <c r="W48" s="3">
-        <f>R48*C48</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="X48" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="Y48" s="3">
-        <f>ABS(W48)*$D48/(2*V48)+ABS(R48)/$E48</f>
+        <f t="shared" si="20"/>
         <v>1.7857142857142856E-2</v>
       </c>
       <c r="Z48" s="3">
-        <f>POWER(POWER(Y48,2)+3*POWER(S48/E48,2),0.5)</f>
+        <f t="shared" si="21"/>
         <v>6.4384844204714103E-2</v>
       </c>
       <c r="AA48" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>3.5714285714285712E-2</v>
       </c>
       <c r="AB48" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>3.5714285714285712E-2</v>
       </c>
     </row>
@@ -3277,19 +3277,19 @@
         <v>12</v>
       </c>
       <c r="E49" s="3">
-        <f>D49*B49*2</f>
+        <f t="shared" si="15"/>
         <v>14.399999999999999</v>
       </c>
-      <c r="F49" s="33" t="str">
-        <f t="shared" si="13"/>
+      <c r="F49" s="16" t="str">
+        <f t="shared" si="22"/>
         <v>safe</v>
       </c>
       <c r="G49" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v>0.69159484832121509</v>
       </c>
       <c r="H49" s="3">
-        <f>MAX(AB49,Z49)</f>
+        <f t="shared" si="16"/>
         <v>0.81256531124850773</v>
       </c>
       <c r="I49" s="3">
@@ -3320,19 +3320,19 @@
         <v>63</v>
       </c>
       <c r="R49" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>9.958965815825497</v>
       </c>
       <c r="S49" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v>-3.546407010013688</v>
       </c>
       <c r="T49" s="3">
-        <f>L49*SIN(ABS(N49))+P49*SIN(ABS(Q49))</f>
+        <f t="shared" si="17"/>
         <v>2.3429798042392971</v>
       </c>
       <c r="U49" s="3">
-        <f>M49*SIN(ABS(N49))+O49*SIN(ABS(Q49))</f>
+        <f t="shared" si="18"/>
         <v>2.0417395436942445</v>
       </c>
       <c r="V49" s="3">
@@ -3340,38 +3340,35 @@
         <v>172.79999999999998</v>
       </c>
       <c r="W49" s="3">
-        <f>R49*C49</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="X49" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="Y49" s="3">
-        <f>ABS(W49)*$D49/(2*V49)+ABS(R49)/$E49</f>
+        <f t="shared" si="20"/>
         <v>0.69159484832121509</v>
       </c>
       <c r="Z49" s="3">
-        <f>POWER(POWER(Y49,2)+3*POWER(S49/E49,2),0.5)</f>
+        <f t="shared" si="21"/>
         <v>0.81256531124850773</v>
       </c>
       <c r="AA49" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>0.24627826458428392</v>
       </c>
       <c r="AB49" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>0.34779885295629009</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="W38:W39"/>
-    <mergeCell ref="Y38:Z39"/>
-    <mergeCell ref="AA38:AB39"/>
-    <mergeCell ref="X38:X39"/>
-    <mergeCell ref="S38:S39"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
     <mergeCell ref="A38:L39"/>
     <mergeCell ref="R38:R39"/>
     <mergeCell ref="N1:O1"/>
@@ -3388,9 +3385,12 @@
     <mergeCell ref="I27:I28"/>
     <mergeCell ref="J27:J28"/>
     <mergeCell ref="K27:K28"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="W38:W39"/>
+    <mergeCell ref="Y38:Z39"/>
+    <mergeCell ref="AA38:AB39"/>
+    <mergeCell ref="X38:X39"/>
+    <mergeCell ref="S38:S39"/>
   </mergeCells>
   <conditionalFormatting sqref="B18:K18">
     <cfRule type="cellIs" dxfId="11" priority="34" operator="equal">

--- a/development/06-Truss calculations/column-bracing.xlsx
+++ b/development/06-Truss calculations/column-bracing.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="84">
   <si>
     <t>number</t>
   </si>
@@ -168,9 +168,6 @@
     <t>weld length</t>
   </si>
   <si>
-    <t>L1</t>
-  </si>
-  <si>
     <t>Res. Axial , Case 1</t>
   </si>
   <si>
@@ -228,9 +225,6 @@
     <t>L4</t>
   </si>
   <si>
-    <t>L5</t>
-  </si>
-  <si>
     <t>L6</t>
   </si>
   <si>
@@ -240,9 +234,6 @@
     <t>L8</t>
   </si>
   <si>
-    <t>L9</t>
-  </si>
-  <si>
     <t>eccentricity</t>
   </si>
   <si>
@@ -262,6 +253,30 @@
   </si>
   <si>
     <t>Moment due to eccentricity , case 2</t>
+  </si>
+  <si>
+    <t>L1,1</t>
+  </si>
+  <si>
+    <t>L1,2</t>
+  </si>
+  <si>
+    <t>L5,1</t>
+  </si>
+  <si>
+    <t>L5,2</t>
+  </si>
+  <si>
+    <t>L5,3</t>
+  </si>
+  <si>
+    <t>L9,1</t>
+  </si>
+  <si>
+    <t>L9,2</t>
+  </si>
+  <si>
+    <t>L9,3</t>
   </si>
 </sst>
 </file>
@@ -477,23 +492,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -525,11 +537,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -541,7 +556,27 @@
     <cellStyle name="Good" xfId="3" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="18">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -658,6 +693,46 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -691,7 +766,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{351E8F81-2B18-D097-ED5F-4F27DF486F57}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{351E8F81-2B18-D097-ED5F-4F27DF486F57}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -735,7 +810,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{161899CD-52BD-AFA9-7E47-E547E7516EF2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{161899CD-52BD-AFA9-7E47-E547E7516EF2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1027,10 +1102,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF49"/>
+  <dimension ref="A1:AF54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I32" sqref="G32:I32"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1058,24 +1133,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="N1" s="20" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="N1" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="O1" s="20"/>
+      <c r="O1" s="23"/>
       <c r="P1" s="13">
         <v>3.6</v>
       </c>
@@ -1084,22 +1159,22 @@
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="N2" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="O2" s="20"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="N2" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="O2" s="23"/>
       <c r="P2" s="14">
         <v>5.2</v>
       </c>
@@ -1180,12 +1255,12 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="L4" s="2"/>
-      <c r="N4" s="26" t="s">
+      <c r="N4" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="26"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
@@ -1222,10 +1297,10 @@
         <v>1</v>
       </c>
       <c r="L5" s="2"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="25"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
@@ -1272,10 +1347,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="L6" s="2"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26"/>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="26"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
@@ -1312,10 +1387,10 @@
         <v>7.8</v>
       </c>
       <c r="L7" s="3"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="26"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="25"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
@@ -1352,10 +1427,10 @@
         <v>2</v>
       </c>
       <c r="L8" s="2"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="26"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="25"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
@@ -1392,10 +1467,10 @@
         <v>70</v>
       </c>
       <c r="L9" s="3"/>
-      <c r="N9" s="26"/>
-      <c r="O9" s="26"/>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="26"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="25"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
@@ -1432,10 +1507,10 @@
         <v>5</v>
       </c>
       <c r="L10" s="2"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="26"/>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="26"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="25"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
@@ -1482,10 +1557,10 @@
         <v>1300</v>
       </c>
       <c r="L11" s="3"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="26"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="25"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
@@ -1720,7 +1795,7 @@
       </c>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>27</v>
       </c>
@@ -1766,7 +1841,7 @@
       </c>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>33</v>
       </c>
@@ -1812,7 +1887,7 @@
       </c>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>25</v>
       </c>
@@ -1858,7 +1933,7 @@
       </c>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>32</v>
       </c>
@@ -1904,23 +1979,23 @@
       </c>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
-      <c r="B21" s="25" t="s">
+      <c r="B21" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="25"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>9</v>
       </c>
@@ -1956,7 +2031,7 @@
       </c>
       <c r="L22" s="3"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>8</v>
       </c>
@@ -1992,7 +2067,7 @@
       </c>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>7</v>
       </c>
@@ -2028,7 +2103,7 @@
       </c>
       <c r="L24" s="3"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>6</v>
       </c>
@@ -2074,7 +2149,7 @@
       </c>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>5</v>
       </c>
@@ -2123,60 +2198,60 @@
         <v>25268100</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="28" t="s">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B27" s="30">
+      <c r="B27" s="29">
         <f>((L26-L12)/L26)*100</f>
         <v>25.621633601260086</v>
       </c>
-      <c r="C27" s="30" t="s">
+      <c r="C27" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D27" s="35" t="s">
+      <c r="D27" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="E27" s="35" t="s">
+      <c r="E27" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="F27" s="35" t="s">
+      <c r="F27" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="G27" s="35" t="s">
+      <c r="G27" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="H27" s="35" t="s">
+      <c r="H27" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="I27" s="35" t="s">
+      <c r="I27" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="J27" s="35" t="s">
+      <c r="J27" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="K27" s="35" t="s">
+      <c r="K27" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="L27" s="35" t="s">
+      <c r="L27" s="19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="29"/>
-      <c r="B28" s="31"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="36"/>
-      <c r="K28" s="36"/>
-      <c r="L28" s="36"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="28"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="20"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="10"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -2190,23 +2265,23 @@
       <c r="K29" s="12"/>
       <c r="L29" s="12"/>
     </row>
-    <row r="30" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="10"/>
-      <c r="B30" s="27" t="s">
+      <c r="B30" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="27"/>
-      <c r="K30" s="27"/>
-      <c r="L30" s="27"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="26"/>
+      <c r="L30" s="26"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>4</v>
       </c>
@@ -2251,7 +2326,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>18</v>
       </c>
@@ -2296,76 +2371,82 @@
         <v>6.0</v>
       </c>
       <c r="L32" s="9"/>
+      <c r="N32" s="3">
+        <v>15.6</v>
+      </c>
+      <c r="O32" s="3">
+        <v>9</v>
+      </c>
     </row>
     <row r="38" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="24" t="s">
+      <c r="A38" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="B38" s="24"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="24"/>
-      <c r="I38" s="24"/>
-      <c r="J38" s="24"/>
-      <c r="K38" s="24"/>
-      <c r="L38" s="24"/>
-      <c r="R38" s="21" t="s">
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="21"/>
+      <c r="J38" s="21"/>
+      <c r="K38" s="21"/>
+      <c r="L38" s="21"/>
+      <c r="R38" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="S38" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="S38" s="21" t="s">
+      <c r="T38" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="T38" s="18" t="s">
+      <c r="U38" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="U38" s="18" t="s">
-        <v>55</v>
-      </c>
       <c r="V38" s="17"/>
-      <c r="W38" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="X38" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y38" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z38" s="22"/>
-      <c r="AA38" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB38" s="22"/>
+      <c r="W38" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="X38" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y38" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z38" s="35"/>
+      <c r="AA38" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB38" s="35"/>
       <c r="AE38" s="17"/>
       <c r="AF38" s="18"/>
     </row>
     <row r="39" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A39" s="24"/>
-      <c r="B39" s="24"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="24"/>
-      <c r="H39" s="24"/>
-      <c r="I39" s="24"/>
-      <c r="J39" s="24"/>
-      <c r="K39" s="24"/>
-      <c r="L39" s="24"/>
-      <c r="R39" s="21"/>
-      <c r="S39" s="21"/>
+      <c r="A39" s="21"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="21"/>
+      <c r="K39" s="21"/>
+      <c r="L39" s="21"/>
+      <c r="R39" s="22"/>
+      <c r="S39" s="22"/>
       <c r="T39" s="18"/>
       <c r="U39" s="18"/>
       <c r="V39" s="17"/>
-      <c r="W39" s="21"/>
-      <c r="X39" s="23"/>
-      <c r="Y39" s="23"/>
-      <c r="Z39" s="23"/>
-      <c r="AA39" s="23"/>
-      <c r="AB39" s="23"/>
+      <c r="W39" s="22"/>
+      <c r="X39" s="36"/>
+      <c r="Y39" s="36"/>
+      <c r="Z39" s="36"/>
+      <c r="AA39" s="36"/>
+      <c r="AB39" s="36"/>
       <c r="AE39" s="17"/>
       <c r="AF39" s="18"/>
     </row>
@@ -2374,25 +2455,25 @@
         <v>36</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>46</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G40" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H40" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="H40" s="5" t="s">
-        <v>61</v>
       </c>
       <c r="I40" s="5" t="s">
         <v>37</v>
@@ -2422,55 +2503,55 @@
         <v>45</v>
       </c>
       <c r="R40" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="S40" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="S40" s="5" t="s">
+      <c r="T40" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="T40" s="5" t="s">
+      <c r="U40" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="U40" s="5" t="s">
-        <v>51</v>
-      </c>
       <c r="V40" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="W40" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="X40" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="Y40" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="Z40" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AA40" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AB40" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="B41" s="3">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="C41" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D41" s="3">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E41" s="3">
-        <f t="shared" ref="E41:E49" si="15">D41*B41*2</f>
-        <v>21.599999999999998</v>
+        <f t="shared" ref="E41:E54" si="15">D41*B41*2</f>
+        <v>14</v>
       </c>
       <c r="F41" s="16" t="str">
         <f>IF(AND(MAX(Y41,AA41)&lt;0.2*$P$2,H41&lt;1.1*0.2*$P$2), "safe", "unsafe")</f>
@@ -2478,11 +2559,11 @@
       </c>
       <c r="G41" s="3">
         <f>MAX(Y41,AA41)</f>
-        <v>1.0249981489844133</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H41" s="3">
-        <f t="shared" ref="H41:H49" si="16">MAX(AB41,Z41)</f>
-        <v>1.0397044474216848</v>
+        <f t="shared" ref="H41:H54" si="16">MAX(AB41,Z41)</f>
+        <v>1.0067881847636035</v>
       </c>
       <c r="I41" s="3">
         <v>6.7</v>
@@ -2494,10 +2575,10 @@
         <v>0</v>
       </c>
       <c r="L41" s="3">
-        <v>15.6</v>
+        <v>0</v>
       </c>
       <c r="M41" s="3">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="N41" s="3">
         <v>-63</v>
@@ -2513,254 +2594,254 @@
       </c>
       <c r="R41" s="3">
         <f>J41*COS(ABS(K41))-L41*COS(ABS(N41))+P41*COS(ABS(Q41))</f>
-        <v>-7.3799866726877745</v>
+        <v>8</v>
       </c>
       <c r="S41" s="3">
         <f>I41*COS(ABS(K41))-M41*COS(ABS(N41))+O41*COS(ABS(Q41))</f>
-        <v>-2.1730692342429476</v>
+        <v>6.7</v>
       </c>
       <c r="T41" s="3">
-        <f t="shared" ref="T41:T49" si="17">L41*SIN(ABS(N41))+P41*SIN(ABS(Q41))</f>
-        <v>2.6107489247237878</v>
+        <f t="shared" ref="T41:T54" si="17">L41*SIN(ABS(N41))+P41*SIN(ABS(Q41))</f>
+        <v>0</v>
       </c>
       <c r="U41" s="3">
-        <f t="shared" ref="U41:U49" si="18">M41*SIN(ABS(N41))+O41*SIN(ABS(Q41))</f>
-        <v>1.5062013027252623</v>
+        <f t="shared" ref="U41:U54" si="18">M41*SIN(ABS(N41))+O41*SIN(ABS(Q41))</f>
+        <v>0</v>
       </c>
       <c r="V41" s="3">
         <f>POWER($D41,3)*$B41/6</f>
-        <v>583.19999999999993</v>
+        <v>57.166666666666664</v>
       </c>
       <c r="W41" s="3">
-        <f t="shared" ref="W41:W49" si="19">R41*C41</f>
-        <v>-44.279920036126647</v>
+        <f t="shared" ref="W41:W54" si="19">R41*C41</f>
+        <v>0</v>
       </c>
       <c r="X41" s="3">
         <f>S41*C41</f>
-        <v>-13.038415405457686</v>
+        <v>0</v>
       </c>
       <c r="Y41" s="3">
-        <f t="shared" ref="Y41:Y49" si="20">ABS(W41)*$D41/(2*V41)+ABS(R41)/$E41</f>
-        <v>1.0249981489844133</v>
+        <f t="shared" ref="Y41:Y54" si="20">ABS(W41)*$D41/(2*V41)+ABS(R41)/$E41</f>
+        <v>0.5714285714285714</v>
       </c>
       <c r="Z41" s="3">
-        <f t="shared" ref="Z41:Z49" si="21">POWER(POWER(Y41,2)+3*POWER(S41/E41,2),0.5)</f>
-        <v>1.0397044474216848</v>
+        <f t="shared" ref="Z41:Z54" si="21">POWER(POWER(Y41,2)+3*POWER(S41/E41,2),0.5)</f>
+        <v>1.0067881847636035</v>
       </c>
       <c r="AA41" s="3">
         <f>ABS(X41)*D41/(2*V41)+ABS(S41)/E41</f>
-        <v>0.30181517142263165</v>
+        <v>0.47857142857142859</v>
       </c>
       <c r="AB41" s="3">
         <f>POWER(POWER(AA41,2)+3*POWER(U41/E41,2),0.5)</f>
-        <v>0.32508439129446176</v>
+        <v>0.47857142857142859</v>
       </c>
     </row>
     <row r="42" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="B42" s="3">
+        <v>1</v>
+      </c>
+      <c r="C42" s="3">
+        <v>7</v>
+      </c>
+      <c r="D42" s="3">
+        <v>22</v>
+      </c>
+      <c r="E42" s="3">
+        <f t="shared" ref="E42" si="22">D42*B42*2</f>
+        <v>44</v>
+      </c>
+      <c r="F42" s="16" t="str">
+        <f>IF(AND(MAX(Y42,AA42)&lt;0.2*$P$2,H42&lt;1.1*0.2*$P$2), "safe", "unsafe")</f>
+        <v>safe</v>
+      </c>
+      <c r="G42" s="3">
+        <f>MAX(Y42,AA42)</f>
+        <v>1.0168586229876213</v>
+      </c>
+      <c r="H42" s="3">
+        <f t="shared" ref="H42" si="23">MAX(AB42,Z42)</f>
+        <v>1.0751755809451358</v>
+      </c>
+      <c r="I42" s="3">
+        <v>0</v>
+      </c>
+      <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3">
+        <v>15.6</v>
+      </c>
+      <c r="M42" s="3">
+        <v>9</v>
+      </c>
+      <c r="N42" s="3">
+        <v>-63</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <f>J42*COS(ABS(K42))-L42*COS(ABS(N42))+P42*COS(ABS(Q42))</f>
+        <v>-15.379986672687775</v>
+      </c>
+      <c r="S42" s="3">
+        <f>I42*COS(ABS(K42))-M42*COS(ABS(N42))+O42*COS(ABS(Q42))</f>
+        <v>-8.8730692342429478</v>
+      </c>
+      <c r="T42" s="3">
+        <f t="shared" ref="T42" si="24">L42*SIN(ABS(N42))+P42*SIN(ABS(Q42))</f>
+        <v>2.6107489247237878</v>
+      </c>
+      <c r="U42" s="3">
+        <f t="shared" ref="U42" si="25">M42*SIN(ABS(N42))+O42*SIN(ABS(Q42))</f>
+        <v>1.5062013027252623</v>
+      </c>
+      <c r="V42" s="3">
+        <f>POWER($D42,3)*$B42/6</f>
+        <v>1774.6666666666667</v>
+      </c>
+      <c r="W42" s="3">
+        <f t="shared" ref="W42" si="26">R42*C42</f>
+        <v>-107.65990670881442</v>
+      </c>
+      <c r="X42" s="3">
+        <f>S42*C42</f>
+        <v>-62.111484639700635</v>
+      </c>
+      <c r="Y42" s="3">
+        <f t="shared" ref="Y42" si="27">ABS(W42)*$D42/(2*V42)+ABS(R42)/$E42</f>
+        <v>1.0168586229876213</v>
+      </c>
+      <c r="Z42" s="3">
+        <f t="shared" ref="Z42" si="28">POWER(POWER(Y42,2)+3*POWER(S42/E42,2),0.5)</f>
+        <v>1.0751755809451358</v>
+      </c>
+      <c r="AA42" s="3">
+        <f>ABS(X42)*D42/(2*V42)+ABS(S42)/E42</f>
+        <v>0.58664920556978162</v>
+      </c>
+      <c r="AB42" s="3">
+        <f>POWER(POWER(AA42,2)+3*POWER(U42/E42,2),0.5)</f>
+        <v>0.5896378113764813</v>
+      </c>
+    </row>
+    <row r="43" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B43" s="3">
         <v>0.4</v>
       </c>
-      <c r="C42" s="3">
-        <v>0</v>
-      </c>
-      <c r="D42" s="3">
+      <c r="C43" s="3">
+        <v>0</v>
+      </c>
+      <c r="D43" s="3">
         <v>12</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E43" s="3">
         <f t="shared" si="15"/>
         <v>9.6000000000000014</v>
       </c>
-      <c r="F42" s="16" t="str">
-        <f t="shared" ref="F42:F49" si="22">IF(AND(G42&lt;0.2*$P$2,H42&lt;1.1*0.2*$P$2), "safe", "unsafe")</f>
+      <c r="F43" s="16" t="str">
+        <f t="shared" ref="F43:F54" si="29">IF(AND(G43&lt;0.2*$P$2,H43&lt;1.1*0.2*$P$2), "safe", "unsafe")</f>
         <v>safe</v>
       </c>
-      <c r="G42" s="3">
-        <f>MAX(Y42,AA42)</f>
+      <c r="G43" s="3">
+        <f>MAX(Y43,AA43)</f>
         <v>0.14348276359709161</v>
       </c>
-      <c r="H42" s="3">
+      <c r="H43" s="3">
         <f t="shared" si="16"/>
         <v>1.0366164054132403</v>
       </c>
-      <c r="I42" s="3">
+      <c r="I43" s="3">
         <v>1.3</v>
       </c>
-      <c r="J42" s="3">
+      <c r="J43" s="3">
         <v>-0.2</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
-      </c>
-      <c r="L42" s="3">
+      <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
         <v>7.4</v>
       </c>
-      <c r="M42" s="3">
+      <c r="M43" s="3">
         <v>18.2</v>
       </c>
-      <c r="N42" s="3">
+      <c r="N43" s="3">
         <v>-63</v>
       </c>
-      <c r="O42" s="3">
+      <c r="O43" s="3">
         <v>16</v>
       </c>
-      <c r="P42" s="3">
+      <c r="P43" s="3">
         <v>9</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="Q43" s="3">
         <v>63</v>
       </c>
-      <c r="R42" s="3">
-        <f t="shared" ref="R42:R49" si="23">J42*COS(ABS(K42))-L42*COS(ABS(N42))+P42*COS(ABS(Q42))</f>
+      <c r="R43" s="3">
+        <f t="shared" ref="R43:R54" si="30">J43*COS(ABS(K43))-L43*COS(ABS(N43))+P43*COS(ABS(Q43))</f>
         <v>1.3774345305320796</v>
       </c>
-      <c r="S42" s="3">
-        <f t="shared" ref="S42:S49" si="24">I42*COS(ABS(K42))-M42*COS(ABS(N42))+O42*COS(ABS(Q42))</f>
+      <c r="S43" s="3">
+        <f t="shared" ref="S43:S54" si="31">I43*COS(ABS(K43))-M43*COS(ABS(N43))+O43*COS(ABS(Q43))</f>
         <v>-0.86897247948160761</v>
       </c>
-      <c r="T42" s="3">
+      <c r="T43" s="3">
         <f t="shared" si="17"/>
         <v>2.7446334849660334</v>
       </c>
-      <c r="U42" s="3">
+      <c r="U43" s="3">
         <f t="shared" si="18"/>
         <v>5.7235649503559962</v>
       </c>
-      <c r="V42" s="3">
-        <f t="shared" ref="V42:V48" si="25">POWER($D42,3)*$B42/6</f>
+      <c r="V43" s="3">
+        <f t="shared" ref="V43:V53" si="32">POWER($D43,3)*$B43/6</f>
         <v>115.2</v>
       </c>
-      <c r="W42" s="3">
+      <c r="W43" s="3">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="X42" s="3">
-        <f t="shared" ref="X42:X49" si="26">S42*C42</f>
-        <v>0</v>
-      </c>
-      <c r="Y42" s="3">
+      <c r="X43" s="3">
+        <f t="shared" ref="X43:X54" si="33">S43*C43</f>
+        <v>0</v>
+      </c>
+      <c r="Y43" s="3">
         <f t="shared" si="20"/>
         <v>0.14348276359709161</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="Z43" s="3">
         <f t="shared" si="21"/>
         <v>0.21252719893824135</v>
       </c>
-      <c r="AA42" s="3">
-        <f t="shared" ref="AA42:AA49" si="27">ABS(X42)*D42/(2*V42)+ABS(S42)/E42</f>
+      <c r="AA43" s="3">
+        <f t="shared" ref="AA43:AA54" si="34">ABS(X43)*D43/(2*V43)+ABS(S43)/E43</f>
         <v>9.051796661266745E-2</v>
       </c>
-      <c r="AB42" s="3">
-        <f t="shared" ref="AB42:AB49" si="28">POWER(POWER(AA42,2)+3*POWER(U42/E42,2),0.5)</f>
+      <c r="AB43" s="3">
+        <f t="shared" ref="AB43:AB54" si="35">POWER(POWER(AA43,2)+3*POWER(U43/E43,2),0.5)</f>
         <v>1.0366164054132403</v>
-      </c>
-    </row>
-    <row r="43" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B43" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="C43" s="3">
-        <v>0</v>
-      </c>
-      <c r="D43" s="3">
-        <v>7</v>
-      </c>
-      <c r="E43" s="3">
-        <f t="shared" si="15"/>
-        <v>5.6000000000000005</v>
-      </c>
-      <c r="F43" s="16" t="str">
-        <f t="shared" si="22"/>
-        <v>safe</v>
-      </c>
-      <c r="G43" s="3">
-        <f t="shared" ref="G43:G49" si="29">MAX(Y43,AA43)</f>
-        <v>0.23214285714285712</v>
-      </c>
-      <c r="H43" s="3">
-        <f t="shared" si="16"/>
-        <v>0.40366623412347552</v>
-      </c>
-      <c r="I43" s="3">
-        <v>1.3</v>
-      </c>
-      <c r="J43" s="3">
-        <v>-0.2</v>
-      </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
-      <c r="L43" s="3">
-        <v>0</v>
-      </c>
-      <c r="M43" s="3">
-        <v>0</v>
-      </c>
-      <c r="N43" s="3">
-        <v>-63</v>
-      </c>
-      <c r="O43" s="3">
-        <v>0</v>
-      </c>
-      <c r="P43" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>63</v>
-      </c>
-      <c r="R43" s="3">
-        <f t="shared" si="23"/>
-        <v>-0.2</v>
-      </c>
-      <c r="S43" s="3">
-        <f t="shared" si="24"/>
-        <v>1.3</v>
-      </c>
-      <c r="T43" s="3">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="U43" s="3">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="V43" s="3">
-        <f t="shared" si="25"/>
-        <v>22.866666666666671</v>
-      </c>
-      <c r="W43" s="3">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="X43" s="3">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="Y43" s="3">
-        <f t="shared" si="20"/>
-        <v>3.5714285714285712E-2</v>
-      </c>
-      <c r="Z43" s="3">
-        <f t="shared" si="21"/>
-        <v>0.40366623412347552</v>
-      </c>
-      <c r="AA43" s="3">
-        <f t="shared" si="27"/>
-        <v>0.23214285714285712</v>
-      </c>
-      <c r="AB43" s="3">
-        <f t="shared" si="28"/>
-        <v>0.23214285714285712</v>
       </c>
     </row>
     <row r="44" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B44" s="3">
         <v>0.4</v>
@@ -2776,22 +2857,22 @@
         <v>5.6000000000000005</v>
       </c>
       <c r="F44" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>safe</v>
       </c>
       <c r="G44" s="3">
-        <f t="shared" si="29"/>
-        <v>1.7857142857142856E-2</v>
+        <f t="shared" ref="G44:G54" si="36">MAX(Y44,AA44)</f>
+        <v>0.23214285714285712</v>
       </c>
       <c r="H44" s="3">
         <f t="shared" si="16"/>
-        <v>3.0929478706587094E-2</v>
+        <v>0.40366623412347552</v>
       </c>
       <c r="I44" s="3">
-        <v>0.1</v>
+        <v>1.3</v>
       </c>
       <c r="J44" s="3">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
@@ -2815,12 +2896,12 @@
         <v>63</v>
       </c>
       <c r="R44" s="3">
-        <f t="shared" si="23"/>
-        <v>0</v>
+        <f t="shared" si="30"/>
+        <v>-0.2</v>
       </c>
       <c r="S44" s="3">
-        <f t="shared" si="24"/>
-        <v>0.1</v>
+        <f t="shared" si="31"/>
+        <v>1.3</v>
       </c>
       <c r="T44" s="3">
         <f t="shared" si="17"/>
@@ -2831,7 +2912,7 @@
         <v>0</v>
       </c>
       <c r="V44" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="32"/>
         <v>22.866666666666671</v>
       </c>
       <c r="W44" s="3">
@@ -2839,54 +2920,54 @@
         <v>0</v>
       </c>
       <c r="X44" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="Y44" s="3">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>3.5714285714285712E-2</v>
       </c>
       <c r="Z44" s="3">
         <f t="shared" si="21"/>
-        <v>3.0929478706587094E-2</v>
+        <v>0.40366623412347552</v>
       </c>
       <c r="AA44" s="3">
-        <f t="shared" si="27"/>
-        <v>1.7857142857142856E-2</v>
+        <f t="shared" si="34"/>
+        <v>0.23214285714285712</v>
       </c>
       <c r="AB44" s="3">
-        <f t="shared" si="28"/>
-        <v>1.7857142857142856E-2</v>
+        <f t="shared" si="35"/>
+        <v>0.23214285714285712</v>
       </c>
     </row>
     <row r="45" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B45" s="3">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="C45" s="3">
         <v>0</v>
       </c>
       <c r="D45" s="3">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E45" s="3">
         <f t="shared" si="15"/>
-        <v>14.399999999999999</v>
+        <v>5.6000000000000005</v>
       </c>
       <c r="F45" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>safe</v>
       </c>
       <c r="G45" s="3">
-        <f t="shared" si="29"/>
-        <v>0.61618536348909358</v>
+        <f t="shared" si="36"/>
+        <v>1.7857142857142856E-2</v>
       </c>
       <c r="H45" s="3">
         <f t="shared" si="16"/>
-        <v>0.81502557276160292</v>
+        <v>3.0929478706587094E-2</v>
       </c>
       <c r="I45" s="3">
         <v>0.1</v>
@@ -2898,99 +2979,99 @@
         <v>0</v>
       </c>
       <c r="L45" s="3">
-        <v>9.1999999999999993</v>
+        <v>0</v>
       </c>
       <c r="M45" s="3">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="N45" s="3">
         <v>-63</v>
       </c>
       <c r="O45" s="3">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="P45" s="3">
-        <v>18.2</v>
+        <v>0</v>
       </c>
       <c r="Q45" s="3">
         <v>63</v>
       </c>
       <c r="R45" s="3">
-        <f t="shared" si="23"/>
-        <v>8.873069234242946</v>
+        <f t="shared" si="30"/>
+        <v>0</v>
       </c>
       <c r="S45" s="3">
-        <f t="shared" si="24"/>
-        <v>-4.4351242752797289</v>
+        <f t="shared" si="31"/>
+        <v>0.1</v>
       </c>
       <c r="T45" s="3">
         <f t="shared" si="17"/>
-        <v>4.5855461882969095</v>
+        <v>0</v>
       </c>
       <c r="U45" s="3">
         <f t="shared" si="18"/>
-        <v>3.2467005858744544</v>
+        <v>0</v>
       </c>
       <c r="V45" s="3">
-        <f t="shared" si="25"/>
-        <v>172.79999999999998</v>
+        <f t="shared" si="32"/>
+        <v>22.866666666666671</v>
       </c>
       <c r="W45" s="3">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="X45" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="Y45" s="3">
         <f t="shared" si="20"/>
-        <v>0.61618536348909358</v>
+        <v>0</v>
       </c>
       <c r="Z45" s="3">
         <f t="shared" si="21"/>
-        <v>0.81502557276160292</v>
+        <v>3.0929478706587094E-2</v>
       </c>
       <c r="AA45" s="3">
-        <f t="shared" si="27"/>
-        <v>0.30799474133887011</v>
+        <f t="shared" si="34"/>
+        <v>1.7857142857142856E-2</v>
       </c>
       <c r="AB45" s="3">
-        <f t="shared" si="28"/>
-        <v>0.49735760794617895</v>
+        <f t="shared" si="35"/>
+        <v>1.7857142857142856E-2</v>
       </c>
     </row>
     <row r="46" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="B46" s="3">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="C46" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D46" s="3">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="E46" s="3">
         <f t="shared" si="15"/>
-        <v>14.399999999999999</v>
+        <v>48</v>
       </c>
       <c r="F46" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>safe</v>
       </c>
       <c r="G46" s="3">
-        <f t="shared" si="29"/>
-        <v>0.53402731502388112</v>
+        <f t="shared" si="36"/>
+        <v>1.028002581420971</v>
       </c>
       <c r="H46" s="3">
         <f t="shared" si="16"/>
-        <v>0.55422021273762123</v>
+        <v>1.0611759359090456</v>
       </c>
       <c r="I46" s="3">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="J46" s="3">
         <v>0</v>
@@ -2999,71 +3080,71 @@
         <v>0</v>
       </c>
       <c r="L46" s="3">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="M46" s="3">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="N46" s="3">
         <v>-63</v>
       </c>
       <c r="O46" s="3">
-        <v>9.1999999999999993</v>
+        <v>7.4</v>
       </c>
       <c r="P46" s="3">
-        <v>12</v>
+        <v>18.2</v>
       </c>
       <c r="Q46" s="3">
         <v>63</v>
       </c>
       <c r="R46" s="3">
-        <f t="shared" si="23"/>
-        <v>7.6899933363438873</v>
+        <f t="shared" si="30"/>
+        <v>17.943317784802403</v>
       </c>
       <c r="S46" s="3">
-        <f t="shared" si="24"/>
-        <v>1.2324378623601362</v>
+        <f t="shared" si="31"/>
+        <v>7.295634703710868</v>
       </c>
       <c r="T46" s="3">
         <f t="shared" si="17"/>
-        <v>2.711162344905472</v>
+        <v>3.0458737455110856</v>
       </c>
       <c r="U46" s="3">
         <f t="shared" si="18"/>
-        <v>3.4642629962681033</v>
+        <v>1.2384321822407711</v>
       </c>
       <c r="V46" s="3">
-        <f t="shared" si="25"/>
-        <v>172.79999999999998</v>
+        <f t="shared" si="32"/>
+        <v>2304</v>
       </c>
       <c r="W46" s="3">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>125.60322449361682</v>
       </c>
       <c r="X46" s="3">
-        <f t="shared" si="26"/>
-        <v>0</v>
+        <f t="shared" si="33"/>
+        <v>51.069442925976077</v>
       </c>
       <c r="Y46" s="3">
         <f t="shared" si="20"/>
-        <v>0.53402731502388112</v>
+        <v>1.028002581420971</v>
       </c>
       <c r="Z46" s="3">
         <f t="shared" si="21"/>
-        <v>0.55422021273762123</v>
+        <v>1.0611759359090456</v>
       </c>
       <c r="AA46" s="3">
-        <f t="shared" si="27"/>
-        <v>8.5585962663898354E-2</v>
+        <f t="shared" si="34"/>
+        <v>0.4179790715667685</v>
       </c>
       <c r="AB46" s="3">
-        <f t="shared" si="28"/>
-        <v>0.42538481923699251</v>
+        <f t="shared" si="35"/>
+        <v>0.42036118761951946</v>
       </c>
     </row>
     <row r="47" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="B47" s="3">
         <v>0.4</v>
@@ -3075,23 +3156,23 @@
         <v>7</v>
       </c>
       <c r="E47" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="E47:E48" si="37">D47*B47*2</f>
         <v>5.6000000000000005</v>
       </c>
       <c r="F47" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" ref="F47:F48" si="38">IF(AND(G47&lt;0.2*$P$2,H47&lt;1.1*0.2*$P$2), "safe", "unsafe")</f>
         <v>safe</v>
       </c>
       <c r="G47" s="3">
-        <f t="shared" si="29"/>
-        <v>0.62499999999999989</v>
+        <f t="shared" ref="G47:G48" si="39">MAX(Y47,AA47)</f>
+        <v>1.7857142857142856E-2</v>
       </c>
       <c r="H47" s="3">
-        <f t="shared" si="16"/>
-        <v>1.0825317547305482</v>
+        <f t="shared" ref="H47:H48" si="40">MAX(AB47,Z47)</f>
+        <v>3.0929478706587094E-2</v>
       </c>
       <c r="I47" s="3">
-        <v>3.5</v>
+        <v>0.1</v>
       </c>
       <c r="J47" s="3">
         <v>0</v>
@@ -3118,93 +3199,93 @@
         <v>63</v>
       </c>
       <c r="R47" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" ref="R47:R48" si="41">J47*COS(ABS(K47))-L47*COS(ABS(N47))+P47*COS(ABS(Q47))</f>
         <v>0</v>
       </c>
       <c r="S47" s="3">
-        <f t="shared" si="24"/>
-        <v>3.5</v>
+        <f t="shared" ref="S47:S48" si="42">I47*COS(ABS(K47))-M47*COS(ABS(N47))+O47*COS(ABS(Q47))</f>
+        <v>0.1</v>
       </c>
       <c r="T47" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="T47:T48" si="43">L47*SIN(ABS(N47))+P47*SIN(ABS(Q47))</f>
         <v>0</v>
       </c>
       <c r="U47" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="U47:U48" si="44">M47*SIN(ABS(N47))+O47*SIN(ABS(Q47))</f>
         <v>0</v>
       </c>
       <c r="V47" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="32"/>
         <v>22.866666666666671</v>
       </c>
       <c r="W47" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="W47:W48" si="45">R47*C47</f>
         <v>0</v>
       </c>
       <c r="X47" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" ref="X47:X48" si="46">S47*C47</f>
         <v>0</v>
       </c>
       <c r="Y47" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="Y47:Y48" si="47">ABS(W47)*$D47/(2*V47)+ABS(R47)/$E47</f>
         <v>0</v>
       </c>
       <c r="Z47" s="3">
-        <f t="shared" si="21"/>
-        <v>1.0825317547305482</v>
+        <f t="shared" ref="Z47:Z48" si="48">POWER(POWER(Y47,2)+3*POWER(S47/E47,2),0.5)</f>
+        <v>3.0929478706587094E-2</v>
       </c>
       <c r="AA47" s="3">
-        <f t="shared" si="27"/>
-        <v>0.62499999999999989</v>
+        <f t="shared" ref="AA47:AA48" si="49">ABS(X47)*D47/(2*V47)+ABS(S47)/E47</f>
+        <v>1.7857142857142856E-2</v>
       </c>
       <c r="AB47" s="3">
-        <f t="shared" si="28"/>
-        <v>0.62499999999999989</v>
+        <f t="shared" ref="AB47:AB48" si="50">POWER(POWER(AA47,2)+3*POWER(U47/E47,2),0.5)</f>
+        <v>1.7857142857142856E-2</v>
       </c>
     </row>
     <row r="48" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="B48" s="3">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="C48" s="3">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D48" s="3">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E48" s="3">
-        <f t="shared" si="15"/>
-        <v>5.6000000000000005</v>
+        <f t="shared" si="37"/>
+        <v>40</v>
       </c>
       <c r="F48" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="38"/>
         <v>safe</v>
       </c>
       <c r="G48" s="3">
-        <f t="shared" si="29"/>
-        <v>3.5714285714285712E-2</v>
+        <f t="shared" si="39"/>
+        <v>0.99711451321420075</v>
       </c>
       <c r="H48" s="3">
-        <f t="shared" si="16"/>
-        <v>6.4384844204714103E-2</v>
+        <f t="shared" si="40"/>
+        <v>1.0008993424300119</v>
       </c>
       <c r="I48" s="3">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="J48" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
       </c>
       <c r="L48" s="3">
-        <v>0</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="M48" s="3">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="N48" s="3">
         <v>-63</v>
@@ -3219,53 +3300,53 @@
         <v>63</v>
       </c>
       <c r="R48" s="3">
-        <f t="shared" si="23"/>
-        <v>0.1</v>
+        <f t="shared" si="41"/>
+        <v>-9.070248550559457</v>
       </c>
       <c r="S48" s="3">
-        <f t="shared" si="24"/>
-        <v>0.2</v>
+        <f t="shared" si="42"/>
+        <v>-11.730758978990597</v>
       </c>
       <c r="T48" s="3">
-        <f t="shared" si="17"/>
-        <v>0</v>
+        <f t="shared" si="43"/>
+        <v>1.5396724427858235</v>
       </c>
       <c r="U48" s="3">
-        <f t="shared" si="18"/>
-        <v>0</v>
+        <f t="shared" si="44"/>
+        <v>2.0082684036336831</v>
       </c>
       <c r="V48" s="3">
-        <f t="shared" si="25"/>
-        <v>22.866666666666671</v>
+        <f t="shared" si="32"/>
+        <v>1333.3333333333333</v>
       </c>
       <c r="W48" s="3">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <f t="shared" si="45"/>
+        <v>-72.561988404475656</v>
       </c>
       <c r="X48" s="3">
-        <f t="shared" si="26"/>
-        <v>0</v>
+        <f t="shared" si="46"/>
+        <v>-93.846071831924775</v>
       </c>
       <c r="Y48" s="3">
-        <f t="shared" si="20"/>
-        <v>1.7857142857142856E-2</v>
+        <f t="shared" si="47"/>
+        <v>0.77097112679755386</v>
       </c>
       <c r="Z48" s="3">
-        <f t="shared" si="21"/>
-        <v>6.4384844204714103E-2</v>
+        <f t="shared" si="48"/>
+        <v>0.9232640751832224</v>
       </c>
       <c r="AA48" s="3">
-        <f t="shared" si="27"/>
-        <v>3.5714285714285712E-2</v>
+        <f t="shared" si="49"/>
+        <v>0.99711451321420075</v>
       </c>
       <c r="AB48" s="3">
-        <f t="shared" si="28"/>
-        <v>3.5714285714285712E-2</v>
+        <f t="shared" si="50"/>
+        <v>1.0008993424300119</v>
       </c>
     </row>
     <row r="49" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B49" s="3">
         <v>0.6</v>
@@ -3281,37 +3362,37 @@
         <v>14.399999999999999</v>
       </c>
       <c r="F49" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>safe</v>
       </c>
       <c r="G49" s="3">
-        <f t="shared" si="29"/>
-        <v>0.69159484832121509</v>
+        <f t="shared" si="36"/>
+        <v>0.53402731502388112</v>
       </c>
       <c r="H49" s="3">
         <f t="shared" si="16"/>
-        <v>0.81256531124850773</v>
+        <v>0.55422021273762123</v>
       </c>
       <c r="I49" s="3">
-        <v>0.2</v>
+        <v>3.5</v>
       </c>
       <c r="J49" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
       </c>
       <c r="L49" s="3">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="M49" s="3">
-        <v>8</v>
+        <v>11.5</v>
       </c>
       <c r="N49" s="3">
         <v>-63</v>
       </c>
       <c r="O49" s="3">
-        <v>4.2</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="P49" s="3">
         <v>12</v>
@@ -3320,23 +3401,23 @@
         <v>63</v>
       </c>
       <c r="R49" s="3">
-        <f t="shared" si="23"/>
-        <v>9.958965815825497</v>
+        <f t="shared" si="30"/>
+        <v>7.6899933363438873</v>
       </c>
       <c r="S49" s="3">
-        <f t="shared" si="24"/>
-        <v>-3.546407010013688</v>
+        <f t="shared" si="31"/>
+        <v>1.2324378623601362</v>
       </c>
       <c r="T49" s="3">
         <f t="shared" si="17"/>
-        <v>2.3429798042392971</v>
+        <v>2.711162344905472</v>
       </c>
       <c r="U49" s="3">
         <f t="shared" si="18"/>
-        <v>2.0417395436942445</v>
+        <v>3.4642629962681033</v>
       </c>
       <c r="V49" s="3">
-        <f>POWER($D49,3)*$B49/6</f>
+        <f t="shared" si="32"/>
         <v>172.79999999999998</v>
       </c>
       <c r="W49" s="3">
@@ -3344,33 +3425,538 @@
         <v>0</v>
       </c>
       <c r="X49" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="Y49" s="3">
         <f t="shared" si="20"/>
-        <v>0.69159484832121509</v>
+        <v>0.53402731502388112</v>
       </c>
       <c r="Z49" s="3">
         <f t="shared" si="21"/>
-        <v>0.81256531124850773</v>
+        <v>0.55422021273762123</v>
       </c>
       <c r="AA49" s="3">
-        <f t="shared" si="27"/>
-        <v>0.24627826458428392</v>
+        <f t="shared" si="34"/>
+        <v>8.5585962663898354E-2</v>
       </c>
       <c r="AB49" s="3">
-        <f t="shared" si="28"/>
-        <v>0.34779885295629009</v>
+        <f t="shared" si="35"/>
+        <v>0.42538481923699251</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B50" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="C50" s="3">
+        <v>0</v>
+      </c>
+      <c r="D50" s="3">
+        <v>7</v>
+      </c>
+      <c r="E50" s="3">
+        <f t="shared" si="15"/>
+        <v>5.6000000000000005</v>
+      </c>
+      <c r="F50" s="16" t="str">
+        <f t="shared" si="29"/>
+        <v>safe</v>
+      </c>
+      <c r="G50" s="3">
+        <f t="shared" si="36"/>
+        <v>0.62499999999999989</v>
+      </c>
+      <c r="H50" s="3">
+        <f t="shared" si="16"/>
+        <v>1.0825317547305482</v>
+      </c>
+      <c r="I50" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="J50" s="3">
+        <v>0</v>
+      </c>
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>-63</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>63</v>
+      </c>
+      <c r="R50" s="3">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <f t="shared" si="31"/>
+        <v>3.5</v>
+      </c>
+      <c r="T50" s="3">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <f t="shared" si="32"/>
+        <v>22.866666666666671</v>
+      </c>
+      <c r="W50" s="3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="X50" s="3">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="Y50" s="3">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Z50" s="3">
+        <f t="shared" si="21"/>
+        <v>1.0825317547305482</v>
+      </c>
+      <c r="AA50" s="3">
+        <f t="shared" si="34"/>
+        <v>0.62499999999999989</v>
+      </c>
+      <c r="AB50" s="3">
+        <f t="shared" si="35"/>
+        <v>0.62499999999999989</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B51" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="C51" s="3">
+        <v>0</v>
+      </c>
+      <c r="D51" s="3">
+        <v>7</v>
+      </c>
+      <c r="E51" s="3">
+        <f t="shared" si="15"/>
+        <v>5.6000000000000005</v>
+      </c>
+      <c r="F51" s="16" t="str">
+        <f t="shared" si="29"/>
+        <v>safe</v>
+      </c>
+      <c r="G51" s="3">
+        <f t="shared" si="36"/>
+        <v>3.5714285714285712E-2</v>
+      </c>
+      <c r="H51" s="3">
+        <f t="shared" si="16"/>
+        <v>6.4384844204714103E-2</v>
+      </c>
+      <c r="I51" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="J51" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>-63</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>63</v>
+      </c>
+      <c r="R51" s="3">
+        <f t="shared" si="30"/>
+        <v>0.1</v>
+      </c>
+      <c r="S51" s="3">
+        <f t="shared" si="31"/>
+        <v>0.2</v>
+      </c>
+      <c r="T51" s="3">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <f t="shared" si="32"/>
+        <v>22.866666666666671</v>
+      </c>
+      <c r="W51" s="3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="X51" s="3">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="Y51" s="3">
+        <f t="shared" si="20"/>
+        <v>1.7857142857142856E-2</v>
+      </c>
+      <c r="Z51" s="3">
+        <f t="shared" si="21"/>
+        <v>6.4384844204714103E-2</v>
+      </c>
+      <c r="AA51" s="3">
+        <f t="shared" si="34"/>
+        <v>3.5714285714285712E-2</v>
+      </c>
+      <c r="AB51" s="3">
+        <f t="shared" si="35"/>
+        <v>3.5714285714285712E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B52" s="3">
+        <v>1</v>
+      </c>
+      <c r="C52" s="3">
+        <v>6</v>
+      </c>
+      <c r="D52" s="3">
+        <v>20</v>
+      </c>
+      <c r="E52" s="3">
+        <f t="shared" ref="E52:E53" si="51">D52*B52*2</f>
+        <v>40</v>
+      </c>
+      <c r="F52" s="16" t="str">
+        <f t="shared" ref="F52:F53" si="52">IF(AND(G52&lt;0.2*$P$2,H52&lt;1.1*0.2*$P$2), "safe", "unsafe")</f>
+        <v>safe</v>
+      </c>
+      <c r="G52" s="3">
+        <f t="shared" ref="G52:G53" si="53">MAX(Y52,AA52)</f>
+        <v>0.82815312852934186</v>
+      </c>
+      <c r="H52" s="3">
+        <f t="shared" ref="H52:H53" si="54">MAX(AB52,Z52)</f>
+        <v>0.84734068826781128</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3">
+        <v>-63</v>
+      </c>
+      <c r="O52" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="P52" s="3">
+        <v>12</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>63</v>
+      </c>
+      <c r="R52" s="3">
+        <f t="shared" ref="R52:R53" si="55">J52*COS(ABS(K52))-L52*COS(ABS(N52))+P52*COS(ABS(Q52))</f>
+        <v>11.830758978990596</v>
+      </c>
+      <c r="S52" s="3">
+        <f t="shared" ref="S52:S53" si="56">I52*COS(ABS(K52))-M52*COS(ABS(N52))+O52*COS(ABS(Q52))</f>
+        <v>4.1407656426467092</v>
+      </c>
+      <c r="T52" s="3">
+        <f t="shared" ref="T52:T53" si="57">L52*SIN(ABS(N52))+P52*SIN(ABS(Q52))</f>
+        <v>2.0082684036336831</v>
+      </c>
+      <c r="U52" s="3">
+        <f t="shared" ref="U52:U53" si="58">M52*SIN(ABS(N52))+O52*SIN(ABS(Q52))</f>
+        <v>0.70289394127178906</v>
+      </c>
+      <c r="V52" s="3">
+        <f t="shared" si="32"/>
+        <v>1333.3333333333333</v>
+      </c>
+      <c r="W52" s="3">
+        <f t="shared" ref="W52:W53" si="59">R52*C52</f>
+        <v>70.984553873943582</v>
+      </c>
+      <c r="X52" s="3">
+        <f t="shared" ref="X52:X53" si="60">S52*C52</f>
+        <v>24.844593855880255</v>
+      </c>
+      <c r="Y52" s="3">
+        <f t="shared" ref="Y52:Y53" si="61">ABS(W52)*$D52/(2*V52)+ABS(R52)/$E52</f>
+        <v>0.82815312852934186</v>
+      </c>
+      <c r="Z52" s="3">
+        <f t="shared" ref="Z52:Z53" si="62">POWER(POWER(Y52,2)+3*POWER(S52/E52,2),0.5)</f>
+        <v>0.84734068826781128</v>
+      </c>
+      <c r="AA52" s="3">
+        <f t="shared" ref="AA52:AA53" si="63">ABS(X52)*D52/(2*V52)+ABS(S52)/E52</f>
+        <v>0.28985359498526964</v>
+      </c>
+      <c r="AB52" s="3">
+        <f t="shared" ref="AB52:AB53" si="64">POWER(POWER(AA52,2)+3*POWER(U52/E52,2),0.5)</f>
+        <v>0.29144719731823349</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B53" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="C53" s="3">
+        <v>0</v>
+      </c>
+      <c r="D53" s="3">
+        <v>7</v>
+      </c>
+      <c r="E53" s="3">
+        <f t="shared" si="51"/>
+        <v>5.6000000000000005</v>
+      </c>
+      <c r="F53" s="16" t="str">
+        <f t="shared" si="52"/>
+        <v>safe</v>
+      </c>
+      <c r="G53" s="3">
+        <f t="shared" si="53"/>
+        <v>3.5714285714285712E-2</v>
+      </c>
+      <c r="H53" s="3">
+        <f t="shared" si="54"/>
+        <v>6.4384844204714103E-2</v>
+      </c>
+      <c r="I53" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="J53" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>-63</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>63</v>
+      </c>
+      <c r="R53" s="3">
+        <f t="shared" si="55"/>
+        <v>0.1</v>
+      </c>
+      <c r="S53" s="3">
+        <f t="shared" si="56"/>
+        <v>0.2</v>
+      </c>
+      <c r="T53" s="3">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <f t="shared" si="32"/>
+        <v>22.866666666666671</v>
+      </c>
+      <c r="W53" s="3">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="X53" s="3">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="Y53" s="3">
+        <f t="shared" si="61"/>
+        <v>1.7857142857142856E-2</v>
+      </c>
+      <c r="Z53" s="3">
+        <f t="shared" si="62"/>
+        <v>6.4384844204714103E-2</v>
+      </c>
+      <c r="AA53" s="3">
+        <f t="shared" si="63"/>
+        <v>3.5714285714285712E-2</v>
+      </c>
+      <c r="AB53" s="3">
+        <f t="shared" si="64"/>
+        <v>3.5714285714285712E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B54" s="3">
+        <v>1</v>
+      </c>
+      <c r="C54" s="3">
+        <v>8</v>
+      </c>
+      <c r="D54" s="3">
+        <v>16</v>
+      </c>
+      <c r="E54" s="3">
+        <f t="shared" si="15"/>
+        <v>32</v>
+      </c>
+      <c r="F54" s="16" t="str">
+        <f t="shared" si="29"/>
+        <v>safe</v>
+      </c>
+      <c r="G54" s="3">
+        <f t="shared" si="36"/>
+        <v>0.98589658158254967</v>
+      </c>
+      <c r="H54" s="3">
+        <f t="shared" si="16"/>
+        <v>0.98855629912040288</v>
+      </c>
+      <c r="I54" s="3">
+        <v>0</v>
+      </c>
+      <c r="J54" s="3">
+        <v>0</v>
+      </c>
+      <c r="K54" s="3">
+        <v>0</v>
+      </c>
+      <c r="L54" s="3">
+        <v>2</v>
+      </c>
+      <c r="M54" s="3">
+        <v>8</v>
+      </c>
+      <c r="N54" s="3">
+        <v>-63</v>
+      </c>
+      <c r="O54" s="3">
+        <v>0</v>
+      </c>
+      <c r="P54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="3">
+        <v>63</v>
+      </c>
+      <c r="R54" s="3">
+        <f t="shared" si="30"/>
+        <v>-1.9717931631650993</v>
+      </c>
+      <c r="S54" s="3">
+        <f t="shared" si="31"/>
+        <v>-7.8871726526603974</v>
+      </c>
+      <c r="T54" s="3">
+        <f t="shared" si="17"/>
+        <v>0.33471140060561383</v>
+      </c>
+      <c r="U54" s="3">
+        <f t="shared" si="18"/>
+        <v>1.3388456024224553</v>
+      </c>
+      <c r="V54" s="3">
+        <f>POWER($D54,3)*$B54/6</f>
+        <v>682.66666666666663</v>
+      </c>
+      <c r="W54" s="3">
+        <f t="shared" si="19"/>
+        <v>-15.774345305320795</v>
+      </c>
+      <c r="X54" s="3">
+        <f t="shared" si="33"/>
+        <v>-63.097381221283179</v>
+      </c>
+      <c r="Y54" s="3">
+        <f t="shared" si="20"/>
+        <v>0.24647414539563742</v>
+      </c>
+      <c r="Z54" s="3">
+        <f t="shared" si="21"/>
+        <v>0.49294829079127483</v>
+      </c>
+      <c r="AA54" s="3">
+        <f t="shared" si="34"/>
+        <v>0.98589658158254967</v>
+      </c>
+      <c r="AB54" s="3">
+        <f t="shared" si="35"/>
+        <v>0.98855629912040288</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="A38:L39"/>
-    <mergeCell ref="R38:R39"/>
+    <mergeCell ref="W38:W39"/>
+    <mergeCell ref="Y38:Z39"/>
+    <mergeCell ref="AA38:AB39"/>
+    <mergeCell ref="X38:X39"/>
+    <mergeCell ref="S38:S39"/>
     <mergeCell ref="N1:O1"/>
     <mergeCell ref="B21:L21"/>
     <mergeCell ref="N4:Q11"/>
@@ -3386,61 +3972,61 @@
     <mergeCell ref="J27:J28"/>
     <mergeCell ref="K27:K28"/>
     <mergeCell ref="N2:O2"/>
-    <mergeCell ref="W38:W39"/>
-    <mergeCell ref="Y38:Z39"/>
-    <mergeCell ref="AA38:AB39"/>
-    <mergeCell ref="X38:X39"/>
-    <mergeCell ref="S38:S39"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="A38:L39"/>
+    <mergeCell ref="R38:R39"/>
   </mergeCells>
   <conditionalFormatting sqref="B18:K18">
-    <cfRule type="cellIs" dxfId="11" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="34" operator="equal">
       <formula>"not safe"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18:K18">
-    <cfRule type="cellIs" dxfId="10" priority="32" operator="notEqual">
+    <cfRule type="cellIs" dxfId="12" priority="32" operator="notEqual">
       <formula>"not safe"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="33" operator="equal">
       <formula>"not safe"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:K20">
-    <cfRule type="cellIs" dxfId="8" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="31" operator="equal">
       <formula>"not safe"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:K20">
-    <cfRule type="cellIs" dxfId="7" priority="29" operator="notEqual">
+    <cfRule type="cellIs" dxfId="9" priority="29" operator="notEqual">
       <formula>"not safe"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="30" operator="equal">
       <formula>"not safe"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:K14">
-    <cfRule type="cellIs" dxfId="5" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="14" operator="greaterThan">
       <formula>180</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15:K15">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="greaterThan">
       <formula>60</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F41">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+  <conditionalFormatting sqref="F41:F42">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>"safe"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>"unsafe"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F42:F49">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+  <conditionalFormatting sqref="F43:F54">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"safe"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"unsafe"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/development/06-Truss calculations/column-bracing.xlsx
+++ b/development/06-Truss calculations/column-bracing.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="85">
   <si>
     <t>number</t>
   </si>
@@ -277,6 +277,9 @@
   </si>
   <si>
     <t>L9,3</t>
+  </si>
+  <si>
+    <t>L10</t>
   </si>
 </sst>
 </file>
@@ -492,17 +495,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -537,13 +537,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="6" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -556,7 +559,7 @@
     <cellStyle name="Good" xfId="3" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="14">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -693,46 +696,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -766,7 +729,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{351E8F81-2B18-D097-ED5F-4F27DF486F57}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{351E8F81-2B18-D097-ED5F-4F27DF486F57}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -810,7 +773,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{161899CD-52BD-AFA9-7E47-E547E7516EF2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{161899CD-52BD-AFA9-7E47-E547E7516EF2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1102,10 +1065,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF54"/>
+  <dimension ref="A1:AF55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H57" sqref="H57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1133,24 +1096,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="N1" s="23" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="N1" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="O1" s="23"/>
+      <c r="O1" s="22"/>
       <c r="P1" s="13">
         <v>3.6</v>
       </c>
@@ -1159,22 +1122,22 @@
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="N2" s="34" t="s">
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="N2" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="O2" s="23"/>
+      <c r="O2" s="22"/>
       <c r="P2" s="14">
         <v>5.2</v>
       </c>
@@ -1255,12 +1218,12 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="L4" s="2"/>
-      <c r="N4" s="25" t="s">
+      <c r="N4" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
@@ -1297,10 +1260,10 @@
         <v>1</v>
       </c>
       <c r="L5" s="2"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="25"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
@@ -1347,10 +1310,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="L6" s="2"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="25"/>
-      <c r="P6" s="25"/>
-      <c r="Q6" s="25"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="24"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
@@ -1387,10 +1350,10 @@
         <v>7.8</v>
       </c>
       <c r="L7" s="3"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="25"/>
-      <c r="P7" s="25"/>
-      <c r="Q7" s="25"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
@@ -1427,10 +1390,10 @@
         <v>2</v>
       </c>
       <c r="L8" s="2"/>
-      <c r="N8" s="25"/>
-      <c r="O8" s="25"/>
-      <c r="P8" s="25"/>
-      <c r="Q8" s="25"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="24"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
@@ -1467,10 +1430,10 @@
         <v>70</v>
       </c>
       <c r="L9" s="3"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="25"/>
-      <c r="P9" s="25"/>
-      <c r="Q9" s="25"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="24"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
@@ -1507,10 +1470,10 @@
         <v>5</v>
       </c>
       <c r="L10" s="2"/>
-      <c r="N10" s="25"/>
-      <c r="O10" s="25"/>
-      <c r="P10" s="25"/>
-      <c r="Q10" s="25"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="24"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
@@ -1557,10 +1520,10 @@
         <v>1300</v>
       </c>
       <c r="L11" s="3"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="25"/>
-      <c r="P11" s="25"/>
-      <c r="Q11" s="25"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
@@ -1981,19 +1944,19 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="24"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="23"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
@@ -2199,57 +2162,57 @@
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="27" t="s">
+      <c r="A27" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B27" s="29">
+      <c r="B27" s="28">
         <f>((L26-L12)/L26)*100</f>
         <v>25.621633601260086</v>
       </c>
-      <c r="C27" s="29" t="s">
+      <c r="C27" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="D27" s="19" t="s">
+      <c r="D27" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="E27" s="19" t="s">
+      <c r="E27" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="F27" s="19" t="s">
+      <c r="F27" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="G27" s="19" t="s">
+      <c r="G27" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="H27" s="19" t="s">
+      <c r="H27" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="I27" s="19" t="s">
+      <c r="I27" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="J27" s="19" t="s">
+      <c r="J27" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="K27" s="19" t="s">
+      <c r="K27" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="L27" s="19" t="s">
+      <c r="L27" s="33" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="28"/>
-      <c r="B28" s="30"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="20"/>
-      <c r="L28" s="20"/>
+      <c r="A28" s="27"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="34"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="10"/>
@@ -2267,19 +2230,19 @@
     </row>
     <row r="30" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="10"/>
-      <c r="B30" s="26" t="s">
+      <c r="B30" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="26"/>
-      <c r="J30" s="26"/>
-      <c r="K30" s="26"/>
-      <c r="L30" s="26"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="25"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
@@ -2379,24 +2342,24 @@
       </c>
     </row>
     <row r="38" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="21" t="s">
+      <c r="A38" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="B38" s="21"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="21"/>
-      <c r="J38" s="21"/>
-      <c r="K38" s="21"/>
-      <c r="L38" s="21"/>
-      <c r="R38" s="22" t="s">
+      <c r="B38" s="36"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="36"/>
+      <c r="J38" s="36"/>
+      <c r="K38" s="36"/>
+      <c r="L38" s="36"/>
+      <c r="R38" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="S38" s="22" t="s">
+      <c r="S38" s="19" t="s">
         <v>52</v>
       </c>
       <c r="T38" s="18" t="s">
@@ -2406,47 +2369,47 @@
         <v>54</v>
       </c>
       <c r="V38" s="17"/>
-      <c r="W38" s="22" t="s">
+      <c r="W38" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="X38" s="35" t="s">
+      <c r="X38" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="Y38" s="35" t="s">
+      <c r="Y38" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="Z38" s="35"/>
-      <c r="AA38" s="35" t="s">
+      <c r="Z38" s="20"/>
+      <c r="AA38" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="AB38" s="35"/>
+      <c r="AB38" s="20"/>
       <c r="AE38" s="17"/>
       <c r="AF38" s="18"/>
     </row>
     <row r="39" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A39" s="21"/>
-      <c r="B39" s="21"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="21"/>
-      <c r="I39" s="21"/>
-      <c r="J39" s="21"/>
-      <c r="K39" s="21"/>
-      <c r="L39" s="21"/>
-      <c r="R39" s="22"/>
-      <c r="S39" s="22"/>
+      <c r="A39" s="36"/>
+      <c r="B39" s="36"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="36"/>
+      <c r="I39" s="36"/>
+      <c r="J39" s="36"/>
+      <c r="K39" s="36"/>
+      <c r="L39" s="36"/>
+      <c r="R39" s="19"/>
+      <c r="S39" s="19"/>
       <c r="T39" s="18"/>
       <c r="U39" s="18"/>
       <c r="V39" s="17"/>
-      <c r="W39" s="22"/>
-      <c r="X39" s="36"/>
-      <c r="Y39" s="36"/>
-      <c r="Z39" s="36"/>
-      <c r="AA39" s="36"/>
-      <c r="AB39" s="36"/>
+      <c r="W39" s="19"/>
+      <c r="X39" s="21"/>
+      <c r="Y39" s="21"/>
+      <c r="Z39" s="21"/>
+      <c r="AA39" s="21"/>
+      <c r="AB39" s="21"/>
       <c r="AE39" s="17"/>
       <c r="AF39" s="18"/>
     </row>
@@ -3950,13 +3913,113 @@
         <v>0.98855629912040288</v>
       </c>
     </row>
+    <row r="55" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B55" s="3">
+        <v>1</v>
+      </c>
+      <c r="C55" s="3">
+        <v>11</v>
+      </c>
+      <c r="D55" s="3">
+        <v>18</v>
+      </c>
+      <c r="E55" s="3">
+        <f t="shared" ref="E55" si="65">D55*B55*2</f>
+        <v>36</v>
+      </c>
+      <c r="F55" s="16" t="str">
+        <f t="shared" ref="F55" si="66">IF(AND(G55&lt;0.2*$P$2,H55&lt;1.1*0.2*$P$2), "safe", "unsafe")</f>
+        <v>safe</v>
+      </c>
+      <c r="G55" s="3">
+        <f t="shared" ref="G55" si="67">MAX(Y55,AA55)</f>
+        <v>1.0224112697893109</v>
+      </c>
+      <c r="H55" s="3">
+        <f t="shared" ref="H55" si="68">MAX(AB55,Z55)</f>
+        <v>1.0244384450116784</v>
+      </c>
+      <c r="I55" s="3">
+        <v>0</v>
+      </c>
+      <c r="J55" s="3">
+        <v>0</v>
+      </c>
+      <c r="K55" s="3">
+        <v>0</v>
+      </c>
+      <c r="L55" s="3">
+        <v>2</v>
+      </c>
+      <c r="M55" s="3">
+        <v>8</v>
+      </c>
+      <c r="N55" s="3">
+        <v>-63</v>
+      </c>
+      <c r="O55" s="3">
+        <v>0</v>
+      </c>
+      <c r="P55" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="3">
+        <v>63</v>
+      </c>
+      <c r="R55" s="3">
+        <f t="shared" ref="R55" si="69">J55*COS(ABS(K55))-L55*COS(ABS(N55))+P55*COS(ABS(Q55))</f>
+        <v>-1.9717931631650993</v>
+      </c>
+      <c r="S55" s="3">
+        <f t="shared" ref="S55" si="70">I55*COS(ABS(K55))-M55*COS(ABS(N55))+O55*COS(ABS(Q55))</f>
+        <v>-7.8871726526603974</v>
+      </c>
+      <c r="T55" s="3">
+        <f t="shared" ref="T55" si="71">L55*SIN(ABS(N55))+P55*SIN(ABS(Q55))</f>
+        <v>0.33471140060561383</v>
+      </c>
+      <c r="U55" s="3">
+        <f t="shared" ref="U55" si="72">M55*SIN(ABS(N55))+O55*SIN(ABS(Q55))</f>
+        <v>1.3388456024224553</v>
+      </c>
+      <c r="V55" s="3">
+        <f>POWER($D55,3)*$B55/6</f>
+        <v>972</v>
+      </c>
+      <c r="W55" s="3">
+        <f t="shared" ref="W55" si="73">R55*C55</f>
+        <v>-21.689724794816094</v>
+      </c>
+      <c r="X55" s="3">
+        <f t="shared" ref="X55" si="74">S55*C55</f>
+        <v>-86.758899179264375</v>
+      </c>
+      <c r="Y55" s="3">
+        <f t="shared" ref="Y55" si="75">ABS(W55)*$D55/(2*V55)+ABS(R55)/$E55</f>
+        <v>0.25560281744732771</v>
+      </c>
+      <c r="Z55" s="3">
+        <f t="shared" ref="Z55" si="76">POWER(POWER(Y55,2)+3*POWER(S55/E55,2),0.5)</f>
+        <v>0.45752773184737727</v>
+      </c>
+      <c r="AA55" s="3">
+        <f t="shared" ref="AA55" si="77">ABS(X55)*D55/(2*V55)+ABS(S55)/E55</f>
+        <v>1.0224112697893109</v>
+      </c>
+      <c r="AB55" s="3">
+        <f t="shared" ref="AB55" si="78">POWER(POWER(AA55,2)+3*POWER(U55/E55,2),0.5)</f>
+        <v>1.0244384450116784</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="W38:W39"/>
-    <mergeCell ref="Y38:Z39"/>
-    <mergeCell ref="AA38:AB39"/>
-    <mergeCell ref="X38:X39"/>
-    <mergeCell ref="S38:S39"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="A38:L39"/>
+    <mergeCell ref="R38:R39"/>
     <mergeCell ref="N1:O1"/>
     <mergeCell ref="B21:L21"/>
     <mergeCell ref="N4:Q11"/>
@@ -3973,10 +4036,11 @@
     <mergeCell ref="K27:K28"/>
     <mergeCell ref="N2:O2"/>
     <mergeCell ref="L27:L28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="A38:L39"/>
-    <mergeCell ref="R38:R39"/>
+    <mergeCell ref="W38:W39"/>
+    <mergeCell ref="Y38:Z39"/>
+    <mergeCell ref="AA38:AB39"/>
+    <mergeCell ref="X38:X39"/>
+    <mergeCell ref="S38:S39"/>
   </mergeCells>
   <conditionalFormatting sqref="B18:K18">
     <cfRule type="cellIs" dxfId="13" priority="34" operator="equal">
@@ -4022,7 +4086,7 @@
       <formula>"unsafe"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F43:F54">
+  <conditionalFormatting sqref="F43:F55">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"safe"</formula>
     </cfRule>
